--- a/US_Housing_Macro_Analysis.xlsx
+++ b/US_Housing_Macro_Analysis.xlsx
@@ -2,20 +2,24 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/GitHub/US_Housing_Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB063B41-E9E9-DA49-A6FC-F156C4C7F1C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77981CB5-A4C5-6F40-B642-5CEC49FD1A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37140" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
+    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="# Sold" sheetId="1" r:id="rId1"/>
+    <sheet name="Average Price" sheetId="2" r:id="rId2"/>
+    <sheet name="Average Revenue of US Home sale" sheetId="3" r:id="rId3"/>
+    <sheet name="Full Timeline" sheetId="4" r:id="rId4"/>
+    <sheet name="63-73" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,15 +38,161 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+  <si>
+    <t>Houses Sold by Region</t>
+  </si>
+  <si>
+    <t>Annual Data</t>
+  </si>
+  <si>
+    <t>(Components may not add to total because of rounding.  Number of housing units in thousands.)</t>
+  </si>
+  <si>
+    <t>Period</t>
+  </si>
+  <si>
+    <t>Sold during period</t>
+  </si>
+  <si>
+    <t>Not seasonally adjusted</t>
+  </si>
+  <si>
+    <t>United</t>
+  </si>
+  <si>
+    <t>North-</t>
+  </si>
+  <si>
+    <t>Mid-</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>States</t>
+  </si>
+  <si>
+    <t>east</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Note: Estimates prior to 1999 include an upward adjustment of 3.3 percent made to account for </t>
+  </si>
+  <si>
+    <t>houses sold in permit-issuing areas that will never have a permit authorization.</t>
+  </si>
+  <si>
+    <t>Multiply houses sold by Avg Sales price</t>
+  </si>
+  <si>
+    <t>Median and Average Sales Prices of New Homes Sold in United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Median </t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Note: The sales price includes the land.</t>
+  </si>
+  <si>
+    <t>Home Sales Revenue</t>
+  </si>
+  <si>
+    <t>* Prices in Billions</t>
+  </si>
+  <si>
+    <t>Peak</t>
+  </si>
+  <si>
+    <t>Valley</t>
+  </si>
+  <si>
+    <t>% Loss</t>
+  </si>
+  <si>
+    <t>Years of Gain</t>
+  </si>
+  <si>
+    <t>% Gain</t>
+  </si>
+  <si>
+    <t>Years of Loss</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
+    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -53,7 +203,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -61,14 +211,196 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -82,6 +414,2881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Home Sales Revenue</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Average Revenue of US Home sale'!$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Median </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Average Revenue of US Home sale'!$A$5:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Period</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$B$6:$B$64</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8653999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.531199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.816800000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>20.605</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>18.632100000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>21.575700000000001</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>28.5532</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39.967199999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>45.506900000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.5961</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>35.207000000000001</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>30.040400000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>28.551600000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.911900000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>51.056100000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.998399999999997</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>70.119500000000002</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>76.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>65.628600000000006</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>61.08</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>74.114999999999995</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>84.248999999999995</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87.1</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>89.311300000000003</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>105.98</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>117.384</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>135.11500000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>141.68</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>148.21299999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>159.08160000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>182.53479999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>211.77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>265.863</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>309.07470000000001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>259.07150000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>192.37039999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>112.5685</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>81.262500000000003</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>71.641400000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69.523200000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90.233599999999996</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>115.35809999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>126.0745</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>147.39420000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>172.67580000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>198.06030000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>201.3888</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>219.58449999999999</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>276.93180000000001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>306.16410000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42C8-B445-93EF-2372FDCEC115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Average Revenue of US Home sale'!$C$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Average Revenue of US Home sale'!$A$5:$A$64</c:f>
+              <c:strCache>
+                <c:ptCount val="60"/>
+                <c:pt idx="0">
+                  <c:v>Period</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2021</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$C$6:$C$64</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>10.808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.362500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.741300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.034000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.564800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.899000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22.507000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>20.1891</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>23.3874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>31.007999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>44.389800000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.0625</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>50.906199999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>41.637999999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>36.188000000000002</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>34.566800000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>55.945399999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>62.366399999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>69.350399999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>83.924999999999997</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>85.351200000000006</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>93.490799999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>96.72</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>79.993200000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>74.924800000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>87.900999999999996</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>98.368200000000002</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>103.515</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>105.85290000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>125.9648</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>141.66480000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>161.1634</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>172.12799999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>181.53899999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>193.5856</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>222.52510000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>267.48180000000002</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>330.2235</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>381.05099999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>321.5009</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>243.3536</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>141.911</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>101.58750000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>88.146699999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>81.977400000000003</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>107.5296</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>139.2105</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>151.94489999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>176.70269999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>202.4649</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>235.94370000000001</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>237.54499999999999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>262.20370000000003</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>322.14179999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>357.89819999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42C8-B445-93EF-2372FDCEC115}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1810956399"/>
+        <c:axId val="572483391"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1810956399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572483391"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="572483391"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1810956399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$B$6:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.08</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10.6785</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.8653999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.0549</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12.103</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.4688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11.349</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16.531199999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.816800000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-C10C-3945-B604-4C05DE3673CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$A$6:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1972</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Average Revenue of US Home sale'!$C$6:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10.808</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.5825</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12.362500000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.741300000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.9802</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.034000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12.4992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>18.564800000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>21.899000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000C-C10C-3945-B604-4C05DE3673CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="1034452959"/>
+        <c:axId val="946605903"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1034452959"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="946605903"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="946605903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1034452959"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="236">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="4"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+                <a:alpha val="25000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>508000</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{147395BD-77FC-CEB0-35E1-EF70FD09A6D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.03961</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.13245</cdr:x>
+      <cdr:y>0.10054</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E376576B-37DA-F9B7-2D20-F83F63C9CF62}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="155362"/>
+          <a:ext cx="852742" cy="238977"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="600">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>*Revenue in Billions</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>749300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0861F2C4-CDB0-5EC5-0665-F643AA4CA8D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,12 +3588,3070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6213725-0950-3E40-8432-7D2C03E82BA1}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="A1:I72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="256" width="8.83203125" customWidth="1"/>
+    <col min="257" max="262" width="15.5" customWidth="1"/>
+    <col min="263" max="512" width="8.83203125" customWidth="1"/>
+    <col min="513" max="518" width="15.5" customWidth="1"/>
+    <col min="519" max="768" width="8.83203125" customWidth="1"/>
+    <col min="769" max="774" width="15.5" customWidth="1"/>
+    <col min="775" max="1024" width="8.83203125" customWidth="1"/>
+    <col min="1025" max="1030" width="15.5" customWidth="1"/>
+    <col min="1031" max="1280" width="8.83203125" customWidth="1"/>
+    <col min="1281" max="1286" width="15.5" customWidth="1"/>
+    <col min="1287" max="1536" width="8.83203125" customWidth="1"/>
+    <col min="1537" max="1542" width="15.5" customWidth="1"/>
+    <col min="1543" max="1792" width="8.83203125" customWidth="1"/>
+    <col min="1793" max="1798" width="15.5" customWidth="1"/>
+    <col min="1799" max="2048" width="8.83203125" customWidth="1"/>
+    <col min="2049" max="2054" width="15.5" customWidth="1"/>
+    <col min="2055" max="2304" width="8.83203125" customWidth="1"/>
+    <col min="2305" max="2310" width="15.5" customWidth="1"/>
+    <col min="2311" max="2560" width="8.83203125" customWidth="1"/>
+    <col min="2561" max="2566" width="15.5" customWidth="1"/>
+    <col min="2567" max="2816" width="8.83203125" customWidth="1"/>
+    <col min="2817" max="2822" width="15.5" customWidth="1"/>
+    <col min="2823" max="3072" width="8.83203125" customWidth="1"/>
+    <col min="3073" max="3078" width="15.5" customWidth="1"/>
+    <col min="3079" max="3328" width="8.83203125" customWidth="1"/>
+    <col min="3329" max="3334" width="15.5" customWidth="1"/>
+    <col min="3335" max="3584" width="8.83203125" customWidth="1"/>
+    <col min="3585" max="3590" width="15.5" customWidth="1"/>
+    <col min="3591" max="3840" width="8.83203125" customWidth="1"/>
+    <col min="3841" max="3846" width="15.5" customWidth="1"/>
+    <col min="3847" max="4096" width="8.83203125" customWidth="1"/>
+    <col min="4097" max="4102" width="15.5" customWidth="1"/>
+    <col min="4103" max="4352" width="8.83203125" customWidth="1"/>
+    <col min="4353" max="4358" width="15.5" customWidth="1"/>
+    <col min="4359" max="4608" width="8.83203125" customWidth="1"/>
+    <col min="4609" max="4614" width="15.5" customWidth="1"/>
+    <col min="4615" max="4864" width="8.83203125" customWidth="1"/>
+    <col min="4865" max="4870" width="15.5" customWidth="1"/>
+    <col min="4871" max="5120" width="8.83203125" customWidth="1"/>
+    <col min="5121" max="5126" width="15.5" customWidth="1"/>
+    <col min="5127" max="5376" width="8.83203125" customWidth="1"/>
+    <col min="5377" max="5382" width="15.5" customWidth="1"/>
+    <col min="5383" max="5632" width="8.83203125" customWidth="1"/>
+    <col min="5633" max="5638" width="15.5" customWidth="1"/>
+    <col min="5639" max="5888" width="8.83203125" customWidth="1"/>
+    <col min="5889" max="5894" width="15.5" customWidth="1"/>
+    <col min="5895" max="6144" width="8.83203125" customWidth="1"/>
+    <col min="6145" max="6150" width="15.5" customWidth="1"/>
+    <col min="6151" max="6400" width="8.83203125" customWidth="1"/>
+    <col min="6401" max="6406" width="15.5" customWidth="1"/>
+    <col min="6407" max="6656" width="8.83203125" customWidth="1"/>
+    <col min="6657" max="6662" width="15.5" customWidth="1"/>
+    <col min="6663" max="6912" width="8.83203125" customWidth="1"/>
+    <col min="6913" max="6918" width="15.5" customWidth="1"/>
+    <col min="6919" max="7168" width="8.83203125" customWidth="1"/>
+    <col min="7169" max="7174" width="15.5" customWidth="1"/>
+    <col min="7175" max="7424" width="8.83203125" customWidth="1"/>
+    <col min="7425" max="7430" width="15.5" customWidth="1"/>
+    <col min="7431" max="7680" width="8.83203125" customWidth="1"/>
+    <col min="7681" max="7686" width="15.5" customWidth="1"/>
+    <col min="7687" max="7936" width="8.83203125" customWidth="1"/>
+    <col min="7937" max="7942" width="15.5" customWidth="1"/>
+    <col min="7943" max="8192" width="8.83203125" customWidth="1"/>
+    <col min="8193" max="8198" width="15.5" customWidth="1"/>
+    <col min="8199" max="8448" width="8.83203125" customWidth="1"/>
+    <col min="8449" max="8454" width="15.5" customWidth="1"/>
+    <col min="8455" max="8704" width="8.83203125" customWidth="1"/>
+    <col min="8705" max="8710" width="15.5" customWidth="1"/>
+    <col min="8711" max="8960" width="8.83203125" customWidth="1"/>
+    <col min="8961" max="8966" width="15.5" customWidth="1"/>
+    <col min="8967" max="9216" width="8.83203125" customWidth="1"/>
+    <col min="9217" max="9222" width="15.5" customWidth="1"/>
+    <col min="9223" max="9472" width="8.83203125" customWidth="1"/>
+    <col min="9473" max="9478" width="15.5" customWidth="1"/>
+    <col min="9479" max="9728" width="8.83203125" customWidth="1"/>
+    <col min="9729" max="9734" width="15.5" customWidth="1"/>
+    <col min="9735" max="9984" width="8.83203125" customWidth="1"/>
+    <col min="9985" max="9990" width="15.5" customWidth="1"/>
+    <col min="9991" max="10240" width="8.83203125" customWidth="1"/>
+    <col min="10241" max="10246" width="15.5" customWidth="1"/>
+    <col min="10247" max="10496" width="8.83203125" customWidth="1"/>
+    <col min="10497" max="10502" width="15.5" customWidth="1"/>
+    <col min="10503" max="10752" width="8.83203125" customWidth="1"/>
+    <col min="10753" max="10758" width="15.5" customWidth="1"/>
+    <col min="10759" max="11008" width="8.83203125" customWidth="1"/>
+    <col min="11009" max="11014" width="15.5" customWidth="1"/>
+    <col min="11015" max="11264" width="8.83203125" customWidth="1"/>
+    <col min="11265" max="11270" width="15.5" customWidth="1"/>
+    <col min="11271" max="11520" width="8.83203125" customWidth="1"/>
+    <col min="11521" max="11526" width="15.5" customWidth="1"/>
+    <col min="11527" max="11776" width="8.83203125" customWidth="1"/>
+    <col min="11777" max="11782" width="15.5" customWidth="1"/>
+    <col min="11783" max="12032" width="8.83203125" customWidth="1"/>
+    <col min="12033" max="12038" width="15.5" customWidth="1"/>
+    <col min="12039" max="12288" width="8.83203125" customWidth="1"/>
+    <col min="12289" max="12294" width="15.5" customWidth="1"/>
+    <col min="12295" max="12544" width="8.83203125" customWidth="1"/>
+    <col min="12545" max="12550" width="15.5" customWidth="1"/>
+    <col min="12551" max="12800" width="8.83203125" customWidth="1"/>
+    <col min="12801" max="12806" width="15.5" customWidth="1"/>
+    <col min="12807" max="13056" width="8.83203125" customWidth="1"/>
+    <col min="13057" max="13062" width="15.5" customWidth="1"/>
+    <col min="13063" max="13312" width="8.83203125" customWidth="1"/>
+    <col min="13313" max="13318" width="15.5" customWidth="1"/>
+    <col min="13319" max="13568" width="8.83203125" customWidth="1"/>
+    <col min="13569" max="13574" width="15.5" customWidth="1"/>
+    <col min="13575" max="13824" width="8.83203125" customWidth="1"/>
+    <col min="13825" max="13830" width="15.5" customWidth="1"/>
+    <col min="13831" max="14080" width="8.83203125" customWidth="1"/>
+    <col min="14081" max="14086" width="15.5" customWidth="1"/>
+    <col min="14087" max="14336" width="8.83203125" customWidth="1"/>
+    <col min="14337" max="14342" width="15.5" customWidth="1"/>
+    <col min="14343" max="14592" width="8.83203125" customWidth="1"/>
+    <col min="14593" max="14598" width="15.5" customWidth="1"/>
+    <col min="14599" max="14848" width="8.83203125" customWidth="1"/>
+    <col min="14849" max="14854" width="15.5" customWidth="1"/>
+    <col min="14855" max="15104" width="8.83203125" customWidth="1"/>
+    <col min="15105" max="15110" width="15.5" customWidth="1"/>
+    <col min="15111" max="15360" width="8.83203125" customWidth="1"/>
+    <col min="15361" max="15366" width="15.5" customWidth="1"/>
+    <col min="15367" max="15616" width="8.83203125" customWidth="1"/>
+    <col min="15617" max="15622" width="15.5" customWidth="1"/>
+    <col min="15623" max="15872" width="8.83203125" customWidth="1"/>
+    <col min="15873" max="15878" width="15.5" customWidth="1"/>
+    <col min="15879" max="16128" width="8.83203125" customWidth="1"/>
+    <col min="16129" max="16134" width="15.5" customWidth="1"/>
+    <col min="16135" max="16384" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>1963</v>
+      </c>
+      <c r="B10" s="13">
+        <v>560</v>
+      </c>
+      <c r="C10" s="13">
+        <v>87</v>
+      </c>
+      <c r="D10" s="13">
+        <v>134</v>
+      </c>
+      <c r="E10" s="13">
+        <v>199</v>
+      </c>
+      <c r="F10" s="13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>1964</v>
+      </c>
+      <c r="B11" s="13">
+        <v>565</v>
+      </c>
+      <c r="C11" s="13">
+        <v>90</v>
+      </c>
+      <c r="D11" s="13">
+        <v>146</v>
+      </c>
+      <c r="E11" s="13">
+        <v>200</v>
+      </c>
+      <c r="F11" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>1965</v>
+      </c>
+      <c r="B12" s="13">
+        <v>575</v>
+      </c>
+      <c r="C12" s="13">
+        <v>94</v>
+      </c>
+      <c r="D12" s="13">
+        <v>142</v>
+      </c>
+      <c r="E12" s="13">
+        <v>210</v>
+      </c>
+      <c r="F12" s="13">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>1966</v>
+      </c>
+      <c r="B13" s="13">
+        <v>461</v>
+      </c>
+      <c r="C13" s="13">
+        <v>84</v>
+      </c>
+      <c r="D13" s="13">
+        <v>113</v>
+      </c>
+      <c r="E13" s="13">
+        <v>166</v>
+      </c>
+      <c r="F13" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1967</v>
+      </c>
+      <c r="B14" s="13">
+        <v>487</v>
+      </c>
+      <c r="C14" s="13">
+        <v>77</v>
+      </c>
+      <c r="D14" s="13">
+        <v>112</v>
+      </c>
+      <c r="E14" s="13">
+        <v>179</v>
+      </c>
+      <c r="F14" s="13">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>1968</v>
+      </c>
+      <c r="B15" s="13">
+        <v>490</v>
+      </c>
+      <c r="C15" s="13">
+        <v>73</v>
+      </c>
+      <c r="D15" s="13">
+        <v>119</v>
+      </c>
+      <c r="E15" s="13">
+        <v>177</v>
+      </c>
+      <c r="F15" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>1969</v>
+      </c>
+      <c r="B16" s="13">
+        <v>448</v>
+      </c>
+      <c r="C16" s="13">
+        <v>62</v>
+      </c>
+      <c r="D16" s="13">
+        <v>97</v>
+      </c>
+      <c r="E16" s="13">
+        <v>175</v>
+      </c>
+      <c r="F16" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>1970</v>
+      </c>
+      <c r="B17" s="13">
+        <v>485</v>
+      </c>
+      <c r="C17" s="13">
+        <v>61</v>
+      </c>
+      <c r="D17" s="13">
+        <v>100</v>
+      </c>
+      <c r="E17" s="13">
+        <v>203</v>
+      </c>
+      <c r="F17" s="13">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1971</v>
+      </c>
+      <c r="B18" s="13">
+        <v>656</v>
+      </c>
+      <c r="C18" s="13">
+        <v>82</v>
+      </c>
+      <c r="D18" s="13">
+        <v>127</v>
+      </c>
+      <c r="E18" s="13">
+        <v>270</v>
+      </c>
+      <c r="F18" s="13">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>1972</v>
+      </c>
+      <c r="B19" s="13">
+        <v>718</v>
+      </c>
+      <c r="C19" s="13">
+        <v>96</v>
+      </c>
+      <c r="D19" s="13">
+        <v>130</v>
+      </c>
+      <c r="E19" s="13">
+        <v>305</v>
+      </c>
+      <c r="F19" s="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>1973</v>
+      </c>
+      <c r="B20" s="13">
+        <v>634</v>
+      </c>
+      <c r="C20" s="13">
+        <v>95</v>
+      </c>
+      <c r="D20" s="13">
+        <v>120</v>
+      </c>
+      <c r="E20" s="13">
+        <v>257</v>
+      </c>
+      <c r="F20" s="13">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>1974</v>
+      </c>
+      <c r="B21" s="13">
+        <v>519</v>
+      </c>
+      <c r="C21" s="13">
+        <v>69</v>
+      </c>
+      <c r="D21" s="13">
+        <v>103</v>
+      </c>
+      <c r="E21" s="13">
+        <v>207</v>
+      </c>
+      <c r="F21" s="13">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>1975</v>
+      </c>
+      <c r="B22" s="13">
+        <v>549</v>
+      </c>
+      <c r="C22" s="13">
+        <v>71</v>
+      </c>
+      <c r="D22" s="13">
+        <v>106</v>
+      </c>
+      <c r="E22" s="13">
+        <v>222</v>
+      </c>
+      <c r="F22" s="13">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>1976</v>
+      </c>
+      <c r="B23" s="13">
+        <v>646</v>
+      </c>
+      <c r="C23" s="13">
+        <v>72</v>
+      </c>
+      <c r="D23" s="13">
+        <v>128</v>
+      </c>
+      <c r="E23" s="13">
+        <v>247</v>
+      </c>
+      <c r="F23" s="13">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1977</v>
+      </c>
+      <c r="B24" s="13">
+        <v>819</v>
+      </c>
+      <c r="C24" s="13">
+        <v>86</v>
+      </c>
+      <c r="D24" s="13">
+        <v>162</v>
+      </c>
+      <c r="E24" s="13">
+        <v>317</v>
+      </c>
+      <c r="F24" s="13">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1978</v>
+      </c>
+      <c r="B25" s="13">
+        <v>817</v>
+      </c>
+      <c r="C25" s="13">
+        <v>78</v>
+      </c>
+      <c r="D25" s="13">
+        <v>145</v>
+      </c>
+      <c r="E25" s="13">
+        <v>331</v>
+      </c>
+      <c r="F25" s="13">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>1979</v>
+      </c>
+      <c r="B26" s="13">
+        <v>709</v>
+      </c>
+      <c r="C26" s="13">
+        <v>67</v>
+      </c>
+      <c r="D26" s="13">
+        <v>112</v>
+      </c>
+      <c r="E26" s="13">
+        <v>304</v>
+      </c>
+      <c r="F26" s="13">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>1980</v>
+      </c>
+      <c r="B27" s="13">
+        <v>545</v>
+      </c>
+      <c r="C27" s="13">
+        <v>50</v>
+      </c>
+      <c r="D27" s="13">
+        <v>81</v>
+      </c>
+      <c r="E27" s="13">
+        <v>267</v>
+      </c>
+      <c r="F27" s="13">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>1981</v>
+      </c>
+      <c r="B28" s="13">
+        <v>436</v>
+      </c>
+      <c r="C28" s="13">
+        <v>46</v>
+      </c>
+      <c r="D28" s="13">
+        <v>60</v>
+      </c>
+      <c r="E28" s="13">
+        <v>219</v>
+      </c>
+      <c r="F28" s="13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B29" s="13">
+        <v>412</v>
+      </c>
+      <c r="C29" s="13">
+        <v>47</v>
+      </c>
+      <c r="D29" s="13">
+        <v>48</v>
+      </c>
+      <c r="E29" s="13">
+        <v>219</v>
+      </c>
+      <c r="F29" s="13">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>1983</v>
+      </c>
+      <c r="B30" s="13">
+        <v>623</v>
+      </c>
+      <c r="C30" s="13">
+        <v>76</v>
+      </c>
+      <c r="D30" s="13">
+        <v>71</v>
+      </c>
+      <c r="E30" s="13">
+        <v>323</v>
+      </c>
+      <c r="F30" s="13">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>1984</v>
+      </c>
+      <c r="B31" s="13">
+        <v>639</v>
+      </c>
+      <c r="C31" s="13">
+        <v>94</v>
+      </c>
+      <c r="D31" s="13">
+        <v>76</v>
+      </c>
+      <c r="E31" s="13">
+        <v>309</v>
+      </c>
+      <c r="F31" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>1985</v>
+      </c>
+      <c r="B32" s="13">
+        <v>688</v>
+      </c>
+      <c r="C32" s="13">
+        <v>112</v>
+      </c>
+      <c r="D32" s="13">
+        <v>82</v>
+      </c>
+      <c r="E32" s="13">
+        <v>323</v>
+      </c>
+      <c r="F32" s="13">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>1986</v>
+      </c>
+      <c r="B33" s="13">
+        <v>750</v>
+      </c>
+      <c r="C33" s="13">
+        <v>136</v>
+      </c>
+      <c r="D33" s="13">
+        <v>96</v>
+      </c>
+      <c r="E33" s="13">
+        <v>322</v>
+      </c>
+      <c r="F33" s="13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>1987</v>
+      </c>
+      <c r="B34" s="13">
+        <v>671</v>
+      </c>
+      <c r="C34" s="13">
+        <v>117</v>
+      </c>
+      <c r="D34" s="13">
+        <v>97</v>
+      </c>
+      <c r="E34" s="13">
+        <v>271</v>
+      </c>
+      <c r="F34" s="13">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>1988</v>
+      </c>
+      <c r="B35" s="13">
+        <v>676</v>
+      </c>
+      <c r="C35" s="13">
+        <v>101</v>
+      </c>
+      <c r="D35" s="13">
+        <v>97</v>
+      </c>
+      <c r="E35" s="13">
+        <v>276</v>
+      </c>
+      <c r="F35" s="13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>1989</v>
+      </c>
+      <c r="B36" s="13">
+        <v>650</v>
+      </c>
+      <c r="C36" s="13">
+        <v>86</v>
+      </c>
+      <c r="D36" s="13">
+        <v>102</v>
+      </c>
+      <c r="E36" s="13">
+        <v>260</v>
+      </c>
+      <c r="F36" s="13">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>1990</v>
+      </c>
+      <c r="B37" s="13">
+        <v>534</v>
+      </c>
+      <c r="C37" s="13">
+        <v>71</v>
+      </c>
+      <c r="D37" s="13">
+        <v>89</v>
+      </c>
+      <c r="E37" s="13">
+        <v>225</v>
+      </c>
+      <c r="F37" s="13">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>1991</v>
+      </c>
+      <c r="B38" s="13">
+        <v>509</v>
+      </c>
+      <c r="C38" s="13">
+        <v>57</v>
+      </c>
+      <c r="D38" s="13">
+        <v>93</v>
+      </c>
+      <c r="E38" s="13">
+        <v>215</v>
+      </c>
+      <c r="F38" s="13">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>1992</v>
+      </c>
+      <c r="B39" s="13">
+        <v>610</v>
+      </c>
+      <c r="C39" s="13">
+        <v>65</v>
+      </c>
+      <c r="D39" s="13">
+        <v>116</v>
+      </c>
+      <c r="E39" s="13">
+        <v>259</v>
+      </c>
+      <c r="F39" s="13">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>1993</v>
+      </c>
+      <c r="B40" s="13">
+        <v>666</v>
+      </c>
+      <c r="C40" s="13">
+        <v>60</v>
+      </c>
+      <c r="D40" s="13">
+        <v>123</v>
+      </c>
+      <c r="E40" s="13">
+        <v>295</v>
+      </c>
+      <c r="F40" s="13">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>1994</v>
+      </c>
+      <c r="B41" s="13">
+        <v>670</v>
+      </c>
+      <c r="C41" s="13">
+        <v>61</v>
+      </c>
+      <c r="D41" s="13">
+        <v>123</v>
+      </c>
+      <c r="E41" s="13">
+        <v>295</v>
+      </c>
+      <c r="F41" s="13">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>1995</v>
+      </c>
+      <c r="B42" s="13">
+        <v>667</v>
+      </c>
+      <c r="C42" s="13">
+        <v>55</v>
+      </c>
+      <c r="D42" s="13">
+        <v>125</v>
+      </c>
+      <c r="E42" s="13">
+        <v>300</v>
+      </c>
+      <c r="F42" s="13">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>1996</v>
+      </c>
+      <c r="B43" s="13">
+        <v>757</v>
+      </c>
+      <c r="C43" s="13">
+        <v>74</v>
+      </c>
+      <c r="D43" s="13">
+        <v>137</v>
+      </c>
+      <c r="E43" s="13">
+        <v>337</v>
+      </c>
+      <c r="F43" s="13">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>1997</v>
+      </c>
+      <c r="B44" s="13">
+        <v>804</v>
+      </c>
+      <c r="C44" s="13">
+        <v>78</v>
+      </c>
+      <c r="D44" s="13">
+        <v>140</v>
+      </c>
+      <c r="E44" s="13">
+        <v>363</v>
+      </c>
+      <c r="F44" s="13">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>1998</v>
+      </c>
+      <c r="B45" s="13">
+        <v>886</v>
+      </c>
+      <c r="C45" s="13">
+        <v>81</v>
+      </c>
+      <c r="D45" s="13">
+        <v>164</v>
+      </c>
+      <c r="E45" s="13">
+        <v>398</v>
+      </c>
+      <c r="F45" s="13">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>1999</v>
+      </c>
+      <c r="B46" s="13">
+        <v>880</v>
+      </c>
+      <c r="C46" s="13">
+        <v>76</v>
+      </c>
+      <c r="D46" s="13">
+        <v>168</v>
+      </c>
+      <c r="E46" s="13">
+        <v>395</v>
+      </c>
+      <c r="F46" s="13">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B47" s="13">
+        <v>877</v>
+      </c>
+      <c r="C47" s="13">
+        <v>71</v>
+      </c>
+      <c r="D47" s="13">
+        <v>155</v>
+      </c>
+      <c r="E47" s="13">
+        <v>406</v>
+      </c>
+      <c r="F47" s="13">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B48" s="13">
+        <v>908</v>
+      </c>
+      <c r="C48" s="13">
+        <v>66</v>
+      </c>
+      <c r="D48" s="13">
+        <v>164</v>
+      </c>
+      <c r="E48" s="13">
+        <v>439</v>
+      </c>
+      <c r="F48" s="13">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B49" s="13">
+        <v>973</v>
+      </c>
+      <c r="C49" s="13">
+        <v>65</v>
+      </c>
+      <c r="D49" s="13">
+        <v>185</v>
+      </c>
+      <c r="E49" s="13">
+        <v>450</v>
+      </c>
+      <c r="F49" s="13">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B50" s="13">
+        <v>1086</v>
+      </c>
+      <c r="C50" s="13">
+        <v>79</v>
+      </c>
+      <c r="D50" s="13">
+        <v>189</v>
+      </c>
+      <c r="E50" s="13">
+        <v>511</v>
+      </c>
+      <c r="F50" s="13">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B51" s="13">
+        <v>1203</v>
+      </c>
+      <c r="C51" s="13">
+        <v>83</v>
+      </c>
+      <c r="D51" s="13">
+        <v>210</v>
+      </c>
+      <c r="E51" s="13">
+        <v>562</v>
+      </c>
+      <c r="F51" s="13">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B52" s="13">
+        <v>1283</v>
+      </c>
+      <c r="C52" s="13">
+        <v>81</v>
+      </c>
+      <c r="D52" s="13">
+        <v>205</v>
+      </c>
+      <c r="E52" s="13">
+        <v>638</v>
+      </c>
+      <c r="F52" s="13">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B53" s="13">
+        <v>1051</v>
+      </c>
+      <c r="C53" s="13">
+        <v>63</v>
+      </c>
+      <c r="D53" s="13">
+        <v>161</v>
+      </c>
+      <c r="E53" s="13">
+        <v>559</v>
+      </c>
+      <c r="F53" s="13">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B54" s="13">
+        <v>776</v>
+      </c>
+      <c r="C54" s="13">
+        <v>65</v>
+      </c>
+      <c r="D54" s="13">
+        <v>118</v>
+      </c>
+      <c r="E54" s="13">
+        <v>411</v>
+      </c>
+      <c r="F54" s="13">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B55" s="13">
+        <v>485</v>
+      </c>
+      <c r="C55" s="13">
+        <v>35</v>
+      </c>
+      <c r="D55" s="13">
+        <v>70</v>
+      </c>
+      <c r="E55" s="13">
+        <v>266</v>
+      </c>
+      <c r="F55" s="13">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B56" s="13">
+        <v>375</v>
+      </c>
+      <c r="C56" s="13">
+        <v>31</v>
+      </c>
+      <c r="D56" s="13">
+        <v>54</v>
+      </c>
+      <c r="E56" s="13">
+        <v>202</v>
+      </c>
+      <c r="F56" s="13">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B57" s="13">
+        <v>323</v>
+      </c>
+      <c r="C57" s="13">
+        <v>31</v>
+      </c>
+      <c r="D57" s="13">
+        <v>45</v>
+      </c>
+      <c r="E57" s="13">
+        <v>173</v>
+      </c>
+      <c r="F57" s="13">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B58" s="13">
+        <v>306</v>
+      </c>
+      <c r="C58" s="13">
+        <v>21</v>
+      </c>
+      <c r="D58" s="13">
+        <v>45</v>
+      </c>
+      <c r="E58" s="13">
+        <v>168</v>
+      </c>
+      <c r="F58" s="13">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B59" s="13">
+        <v>368</v>
+      </c>
+      <c r="C59" s="13">
+        <v>29</v>
+      </c>
+      <c r="D59" s="13">
+        <v>47</v>
+      </c>
+      <c r="E59" s="13">
+        <v>195</v>
+      </c>
+      <c r="F59" s="13">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B60" s="13">
+        <v>429</v>
+      </c>
+      <c r="C60" s="13">
+        <v>31</v>
+      </c>
+      <c r="D60" s="13">
+        <v>61</v>
+      </c>
+      <c r="E60" s="13">
+        <v>233</v>
+      </c>
+      <c r="F60" s="13">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B61" s="13">
+        <v>437</v>
+      </c>
+      <c r="C61" s="13">
+        <v>28</v>
+      </c>
+      <c r="D61" s="13">
+        <v>59</v>
+      </c>
+      <c r="E61" s="13">
+        <v>243</v>
+      </c>
+      <c r="F61" s="13">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B62" s="13">
+        <v>501</v>
+      </c>
+      <c r="C62" s="13">
+        <v>24</v>
+      </c>
+      <c r="D62" s="13">
+        <v>61</v>
+      </c>
+      <c r="E62" s="13">
+        <v>286</v>
+      </c>
+      <c r="F62" s="13">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B63" s="13">
+        <v>561</v>
+      </c>
+      <c r="C63" s="13">
+        <v>32</v>
+      </c>
+      <c r="D63" s="13">
+        <v>69</v>
+      </c>
+      <c r="E63" s="13">
+        <v>318</v>
+      </c>
+      <c r="F63" s="13">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B64" s="13">
+        <v>613</v>
+      </c>
+      <c r="C64" s="13">
+        <v>40</v>
+      </c>
+      <c r="D64" s="13">
+        <v>72</v>
+      </c>
+      <c r="E64" s="13">
+        <v>339</v>
+      </c>
+      <c r="F64" s="13">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B65" s="13">
+        <v>617</v>
+      </c>
+      <c r="C65" s="13">
+        <v>32</v>
+      </c>
+      <c r="D65" s="13">
+        <v>76</v>
+      </c>
+      <c r="E65" s="13">
+        <v>348</v>
+      </c>
+      <c r="F65" s="13">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B66" s="13">
+        <v>683</v>
+      </c>
+      <c r="C66" s="13">
+        <v>30</v>
+      </c>
+      <c r="D66" s="13">
+        <v>72</v>
+      </c>
+      <c r="E66" s="13">
+        <v>399</v>
+      </c>
+      <c r="F66" s="13">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B67" s="13">
+        <v>822</v>
+      </c>
+      <c r="C67" s="13">
+        <v>37</v>
+      </c>
+      <c r="D67" s="13">
+        <v>93</v>
+      </c>
+      <c r="E67" s="13">
+        <v>474</v>
+      </c>
+      <c r="F67" s="13">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B68" s="13">
+        <v>771</v>
+      </c>
+      <c r="C68" s="13">
+        <v>36</v>
+      </c>
+      <c r="D68" s="13">
+        <v>86</v>
+      </c>
+      <c r="E68" s="13">
+        <v>453</v>
+      </c>
+      <c r="F68" s="13">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="12"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+    </row>
+    <row r="70" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="12"/>
+      <c r="B70" s="12"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
+      <c r="F70" s="12"/>
+    </row>
+    <row r="71" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B71" s="12"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+    </row>
+    <row r="72" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B72" s="12"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="12"/>
+      <c r="F72" s="12"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A6:A9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4235C1A1-5F71-ED4C-9C03-7A158558F48A}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:C67"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="25.33203125" customWidth="1"/>
+    <col min="4" max="256" width="8.83203125" customWidth="1"/>
+    <col min="257" max="259" width="25.33203125" customWidth="1"/>
+    <col min="260" max="512" width="8.83203125" customWidth="1"/>
+    <col min="513" max="515" width="25.33203125" customWidth="1"/>
+    <col min="516" max="768" width="8.83203125" customWidth="1"/>
+    <col min="769" max="771" width="25.33203125" customWidth="1"/>
+    <col min="772" max="1024" width="8.83203125" customWidth="1"/>
+    <col min="1025" max="1027" width="25.33203125" customWidth="1"/>
+    <col min="1028" max="1280" width="8.83203125" customWidth="1"/>
+    <col min="1281" max="1283" width="25.33203125" customWidth="1"/>
+    <col min="1284" max="1536" width="8.83203125" customWidth="1"/>
+    <col min="1537" max="1539" width="25.33203125" customWidth="1"/>
+    <col min="1540" max="1792" width="8.83203125" customWidth="1"/>
+    <col min="1793" max="1795" width="25.33203125" customWidth="1"/>
+    <col min="1796" max="2048" width="8.83203125" customWidth="1"/>
+    <col min="2049" max="2051" width="25.33203125" customWidth="1"/>
+    <col min="2052" max="2304" width="8.83203125" customWidth="1"/>
+    <col min="2305" max="2307" width="25.33203125" customWidth="1"/>
+    <col min="2308" max="2560" width="8.83203125" customWidth="1"/>
+    <col min="2561" max="2563" width="25.33203125" customWidth="1"/>
+    <col min="2564" max="2816" width="8.83203125" customWidth="1"/>
+    <col min="2817" max="2819" width="25.33203125" customWidth="1"/>
+    <col min="2820" max="3072" width="8.83203125" customWidth="1"/>
+    <col min="3073" max="3075" width="25.33203125" customWidth="1"/>
+    <col min="3076" max="3328" width="8.83203125" customWidth="1"/>
+    <col min="3329" max="3331" width="25.33203125" customWidth="1"/>
+    <col min="3332" max="3584" width="8.83203125" customWidth="1"/>
+    <col min="3585" max="3587" width="25.33203125" customWidth="1"/>
+    <col min="3588" max="3840" width="8.83203125" customWidth="1"/>
+    <col min="3841" max="3843" width="25.33203125" customWidth="1"/>
+    <col min="3844" max="4096" width="8.83203125" customWidth="1"/>
+    <col min="4097" max="4099" width="25.33203125" customWidth="1"/>
+    <col min="4100" max="4352" width="8.83203125" customWidth="1"/>
+    <col min="4353" max="4355" width="25.33203125" customWidth="1"/>
+    <col min="4356" max="4608" width="8.83203125" customWidth="1"/>
+    <col min="4609" max="4611" width="25.33203125" customWidth="1"/>
+    <col min="4612" max="4864" width="8.83203125" customWidth="1"/>
+    <col min="4865" max="4867" width="25.33203125" customWidth="1"/>
+    <col min="4868" max="5120" width="8.83203125" customWidth="1"/>
+    <col min="5121" max="5123" width="25.33203125" customWidth="1"/>
+    <col min="5124" max="5376" width="8.83203125" customWidth="1"/>
+    <col min="5377" max="5379" width="25.33203125" customWidth="1"/>
+    <col min="5380" max="5632" width="8.83203125" customWidth="1"/>
+    <col min="5633" max="5635" width="25.33203125" customWidth="1"/>
+    <col min="5636" max="5888" width="8.83203125" customWidth="1"/>
+    <col min="5889" max="5891" width="25.33203125" customWidth="1"/>
+    <col min="5892" max="6144" width="8.83203125" customWidth="1"/>
+    <col min="6145" max="6147" width="25.33203125" customWidth="1"/>
+    <col min="6148" max="6400" width="8.83203125" customWidth="1"/>
+    <col min="6401" max="6403" width="25.33203125" customWidth="1"/>
+    <col min="6404" max="6656" width="8.83203125" customWidth="1"/>
+    <col min="6657" max="6659" width="25.33203125" customWidth="1"/>
+    <col min="6660" max="6912" width="8.83203125" customWidth="1"/>
+    <col min="6913" max="6915" width="25.33203125" customWidth="1"/>
+    <col min="6916" max="7168" width="8.83203125" customWidth="1"/>
+    <col min="7169" max="7171" width="25.33203125" customWidth="1"/>
+    <col min="7172" max="7424" width="8.83203125" customWidth="1"/>
+    <col min="7425" max="7427" width="25.33203125" customWidth="1"/>
+    <col min="7428" max="7680" width="8.83203125" customWidth="1"/>
+    <col min="7681" max="7683" width="25.33203125" customWidth="1"/>
+    <col min="7684" max="7936" width="8.83203125" customWidth="1"/>
+    <col min="7937" max="7939" width="25.33203125" customWidth="1"/>
+    <col min="7940" max="8192" width="8.83203125" customWidth="1"/>
+    <col min="8193" max="8195" width="25.33203125" customWidth="1"/>
+    <col min="8196" max="8448" width="8.83203125" customWidth="1"/>
+    <col min="8449" max="8451" width="25.33203125" customWidth="1"/>
+    <col min="8452" max="8704" width="8.83203125" customWidth="1"/>
+    <col min="8705" max="8707" width="25.33203125" customWidth="1"/>
+    <col min="8708" max="8960" width="8.83203125" customWidth="1"/>
+    <col min="8961" max="8963" width="25.33203125" customWidth="1"/>
+    <col min="8964" max="9216" width="8.83203125" customWidth="1"/>
+    <col min="9217" max="9219" width="25.33203125" customWidth="1"/>
+    <col min="9220" max="9472" width="8.83203125" customWidth="1"/>
+    <col min="9473" max="9475" width="25.33203125" customWidth="1"/>
+    <col min="9476" max="9728" width="8.83203125" customWidth="1"/>
+    <col min="9729" max="9731" width="25.33203125" customWidth="1"/>
+    <col min="9732" max="9984" width="8.83203125" customWidth="1"/>
+    <col min="9985" max="9987" width="25.33203125" customWidth="1"/>
+    <col min="9988" max="10240" width="8.83203125" customWidth="1"/>
+    <col min="10241" max="10243" width="25.33203125" customWidth="1"/>
+    <col min="10244" max="10496" width="8.83203125" customWidth="1"/>
+    <col min="10497" max="10499" width="25.33203125" customWidth="1"/>
+    <col min="10500" max="10752" width="8.83203125" customWidth="1"/>
+    <col min="10753" max="10755" width="25.33203125" customWidth="1"/>
+    <col min="10756" max="11008" width="8.83203125" customWidth="1"/>
+    <col min="11009" max="11011" width="25.33203125" customWidth="1"/>
+    <col min="11012" max="11264" width="8.83203125" customWidth="1"/>
+    <col min="11265" max="11267" width="25.33203125" customWidth="1"/>
+    <col min="11268" max="11520" width="8.83203125" customWidth="1"/>
+    <col min="11521" max="11523" width="25.33203125" customWidth="1"/>
+    <col min="11524" max="11776" width="8.83203125" customWidth="1"/>
+    <col min="11777" max="11779" width="25.33203125" customWidth="1"/>
+    <col min="11780" max="12032" width="8.83203125" customWidth="1"/>
+    <col min="12033" max="12035" width="25.33203125" customWidth="1"/>
+    <col min="12036" max="12288" width="8.83203125" customWidth="1"/>
+    <col min="12289" max="12291" width="25.33203125" customWidth="1"/>
+    <col min="12292" max="12544" width="8.83203125" customWidth="1"/>
+    <col min="12545" max="12547" width="25.33203125" customWidth="1"/>
+    <col min="12548" max="12800" width="8.83203125" customWidth="1"/>
+    <col min="12801" max="12803" width="25.33203125" customWidth="1"/>
+    <col min="12804" max="13056" width="8.83203125" customWidth="1"/>
+    <col min="13057" max="13059" width="25.33203125" customWidth="1"/>
+    <col min="13060" max="13312" width="8.83203125" customWidth="1"/>
+    <col min="13313" max="13315" width="25.33203125" customWidth="1"/>
+    <col min="13316" max="13568" width="8.83203125" customWidth="1"/>
+    <col min="13569" max="13571" width="25.33203125" customWidth="1"/>
+    <col min="13572" max="13824" width="8.83203125" customWidth="1"/>
+    <col min="13825" max="13827" width="25.33203125" customWidth="1"/>
+    <col min="13828" max="14080" width="8.83203125" customWidth="1"/>
+    <col min="14081" max="14083" width="25.33203125" customWidth="1"/>
+    <col min="14084" max="14336" width="8.83203125" customWidth="1"/>
+    <col min="14337" max="14339" width="25.33203125" customWidth="1"/>
+    <col min="14340" max="14592" width="8.83203125" customWidth="1"/>
+    <col min="14593" max="14595" width="25.33203125" customWidth="1"/>
+    <col min="14596" max="14848" width="8.83203125" customWidth="1"/>
+    <col min="14849" max="14851" width="25.33203125" customWidth="1"/>
+    <col min="14852" max="15104" width="8.83203125" customWidth="1"/>
+    <col min="15105" max="15107" width="25.33203125" customWidth="1"/>
+    <col min="15108" max="15360" width="8.83203125" customWidth="1"/>
+    <col min="15361" max="15363" width="25.33203125" customWidth="1"/>
+    <col min="15364" max="15616" width="8.83203125" customWidth="1"/>
+    <col min="15617" max="15619" width="25.33203125" customWidth="1"/>
+    <col min="15620" max="15872" width="8.83203125" customWidth="1"/>
+    <col min="15873" max="15875" width="25.33203125" customWidth="1"/>
+    <col min="15876" max="16128" width="8.83203125" customWidth="1"/>
+    <col min="16129" max="16131" width="25.33203125" customWidth="1"/>
+    <col min="16132" max="16384" width="8.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>1963</v>
+      </c>
+      <c r="B6" s="19">
+        <v>18000</v>
+      </c>
+      <c r="C6" s="19">
+        <v>19300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>1964</v>
+      </c>
+      <c r="B7" s="19">
+        <v>18900</v>
+      </c>
+      <c r="C7" s="19">
+        <v>20500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>1965</v>
+      </c>
+      <c r="B8" s="19">
+        <v>20000</v>
+      </c>
+      <c r="C8" s="19">
+        <v>21500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>1966</v>
+      </c>
+      <c r="B9" s="19">
+        <v>21400</v>
+      </c>
+      <c r="C9" s="19">
+        <v>23300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>1967</v>
+      </c>
+      <c r="B10" s="19">
+        <v>22700</v>
+      </c>
+      <c r="C10" s="19">
+        <v>24600</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>1968</v>
+      </c>
+      <c r="B11" s="19">
+        <v>24700</v>
+      </c>
+      <c r="C11" s="19">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>1969</v>
+      </c>
+      <c r="B12" s="19">
+        <v>25600</v>
+      </c>
+      <c r="C12" s="19">
+        <v>27900</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>1970</v>
+      </c>
+      <c r="B13" s="19">
+        <v>23400</v>
+      </c>
+      <c r="C13" s="19">
+        <v>26600</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1971</v>
+      </c>
+      <c r="B14" s="19">
+        <v>25200</v>
+      </c>
+      <c r="C14" s="19">
+        <v>28300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>1972</v>
+      </c>
+      <c r="B15" s="19">
+        <v>27600</v>
+      </c>
+      <c r="C15" s="19">
+        <v>30500</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>1973</v>
+      </c>
+      <c r="B16" s="19">
+        <v>32500</v>
+      </c>
+      <c r="C16" s="19">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>1974</v>
+      </c>
+      <c r="B17" s="19">
+        <v>35900</v>
+      </c>
+      <c r="C17" s="19">
+        <v>38900</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1975</v>
+      </c>
+      <c r="B18" s="19">
+        <v>39300</v>
+      </c>
+      <c r="C18" s="19">
+        <v>42600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>1976</v>
+      </c>
+      <c r="B19" s="19">
+        <v>44200</v>
+      </c>
+      <c r="C19" s="19">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="19">
+        <v>48800</v>
+      </c>
+      <c r="C20" s="19">
+        <v>54200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>1978</v>
+      </c>
+      <c r="B21" s="19">
+        <v>55700</v>
+      </c>
+      <c r="C21" s="19">
+        <v>62500</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>1979</v>
+      </c>
+      <c r="B22" s="19">
+        <v>62900</v>
+      </c>
+      <c r="C22" s="19">
+        <v>71800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>1980</v>
+      </c>
+      <c r="B23" s="19">
+        <v>64600</v>
+      </c>
+      <c r="C23" s="19">
+        <v>76400</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1981</v>
+      </c>
+      <c r="B24" s="19">
+        <v>68900</v>
+      </c>
+      <c r="C24" s="19">
+        <v>83000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B25" s="19">
+        <v>69300</v>
+      </c>
+      <c r="C25" s="19">
+        <v>83900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>1983</v>
+      </c>
+      <c r="B26" s="19">
+        <v>75300</v>
+      </c>
+      <c r="C26" s="19">
+        <v>89800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="19">
+        <v>79900</v>
+      </c>
+      <c r="C27" s="19">
+        <v>97600</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>1985</v>
+      </c>
+      <c r="B28" s="19">
+        <v>84300</v>
+      </c>
+      <c r="C28" s="19">
+        <v>100800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>1986</v>
+      </c>
+      <c r="B29" s="19">
+        <v>92000</v>
+      </c>
+      <c r="C29" s="19">
+        <v>111900</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="19">
+        <v>104500</v>
+      </c>
+      <c r="C30" s="19">
+        <v>127200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>1988</v>
+      </c>
+      <c r="B31" s="19">
+        <v>112500</v>
+      </c>
+      <c r="C31" s="19">
+        <v>138300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>1989</v>
+      </c>
+      <c r="B32" s="19">
+        <v>120000</v>
+      </c>
+      <c r="C32" s="19">
+        <v>148800</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="19">
+        <v>122900</v>
+      </c>
+      <c r="C33" s="19">
+        <v>149800</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>1991</v>
+      </c>
+      <c r="B34" s="19">
+        <v>120000</v>
+      </c>
+      <c r="C34" s="19">
+        <v>147200</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>1992</v>
+      </c>
+      <c r="B35" s="19">
+        <v>121500</v>
+      </c>
+      <c r="C35" s="19">
+        <v>144100</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>1993</v>
+      </c>
+      <c r="B36" s="19">
+        <v>126500</v>
+      </c>
+      <c r="C36" s="19">
+        <v>147700</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>1994</v>
+      </c>
+      <c r="B37" s="19">
+        <v>130000</v>
+      </c>
+      <c r="C37" s="19">
+        <v>154500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>1995</v>
+      </c>
+      <c r="B38" s="19">
+        <v>133900</v>
+      </c>
+      <c r="C38" s="19">
+        <v>158700</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>1996</v>
+      </c>
+      <c r="B39" s="19">
+        <v>140000</v>
+      </c>
+      <c r="C39" s="19">
+        <v>166400</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>1997</v>
+      </c>
+      <c r="B40" s="19">
+        <v>146000</v>
+      </c>
+      <c r="C40" s="19">
+        <v>176200</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>1998</v>
+      </c>
+      <c r="B41" s="19">
+        <v>152500</v>
+      </c>
+      <c r="C41" s="19">
+        <v>181900</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>1999</v>
+      </c>
+      <c r="B42" s="19">
+        <v>161000</v>
+      </c>
+      <c r="C42" s="19">
+        <v>195600</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="19">
+        <v>169000</v>
+      </c>
+      <c r="C43" s="19">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B44" s="19">
+        <v>175200</v>
+      </c>
+      <c r="C44" s="19">
+        <v>213200</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B45" s="19">
+        <v>187600</v>
+      </c>
+      <c r="C45" s="19">
+        <v>228700</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B46" s="19">
+        <v>195000</v>
+      </c>
+      <c r="C46" s="19">
+        <v>246300</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B47" s="19">
+        <v>221000</v>
+      </c>
+      <c r="C47" s="19">
+        <v>274500</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B48" s="19">
+        <v>240900</v>
+      </c>
+      <c r="C48" s="19">
+        <v>297000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="19">
+        <v>246500</v>
+      </c>
+      <c r="C49" s="19">
+        <v>305900</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="19">
+        <v>247900</v>
+      </c>
+      <c r="C50" s="19">
+        <v>313600</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B51" s="19">
+        <v>232100</v>
+      </c>
+      <c r="C51" s="19">
+        <v>292600</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B52" s="19">
+        <v>216700</v>
+      </c>
+      <c r="C52" s="19">
+        <v>270900</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B53" s="19">
+        <v>221800</v>
+      </c>
+      <c r="C53" s="19">
+        <v>272900</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="19">
+        <v>227200</v>
+      </c>
+      <c r="C54" s="19">
+        <v>267900</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B55" s="19">
+        <v>245200</v>
+      </c>
+      <c r="C55" s="19">
+        <v>292200</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B56" s="19">
+        <v>268900</v>
+      </c>
+      <c r="C56" s="19">
+        <v>324500</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B57" s="19">
+        <v>288500</v>
+      </c>
+      <c r="C57" s="19">
+        <v>347700</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="19">
+        <v>294200</v>
+      </c>
+      <c r="C58" s="19">
+        <v>352700</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B59" s="19">
+        <v>307800</v>
+      </c>
+      <c r="C59" s="19">
+        <v>360900</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="19">
+        <v>323100</v>
+      </c>
+      <c r="C60" s="19">
+        <v>384900</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="19">
+        <v>326400</v>
+      </c>
+      <c r="C61" s="19">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B62" s="19">
+        <v>321500</v>
+      </c>
+      <c r="C62" s="19">
+        <v>383900</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="19">
+        <v>336900</v>
+      </c>
+      <c r="C63" s="19">
+        <v>391900</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="19">
+        <v>397100</v>
+      </c>
+      <c r="C64" s="19">
+        <v>464200</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="12"/>
+      <c r="B65" s="20"/>
+      <c r="C65" s="20"/>
+    </row>
+    <row r="66" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="12"/>
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+    </row>
+    <row r="67" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B67" s="20"/>
+      <c r="C67" s="20"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7966E2-C3F6-724E-A5A0-D24726136052}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:I64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="12">
+        <v>1963</v>
+      </c>
+      <c r="B6" s="22" cm="1">
+        <f t="array" ref="B6:B64">'# Sold'!B10:B68 * 'Average Price'!B6:B64/1000000</f>
+        <v>10.08</v>
+      </c>
+      <c r="C6" s="22" cm="1">
+        <f t="array" ref="C6:C64">'# Sold'!B10:B68 *'Average Price'!C6:C64/1000000</f>
+        <v>10.808</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
+        <v>1964</v>
+      </c>
+      <c r="B7" s="22">
+        <v>10.6785</v>
+      </c>
+      <c r="C7" s="22">
+        <v>11.5825</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
+        <v>1965</v>
+      </c>
+      <c r="B8" s="22">
+        <v>11.5</v>
+      </c>
+      <c r="C8" s="22">
+        <v>12.362500000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
+        <v>1966</v>
+      </c>
+      <c r="B9" s="22">
+        <v>9.8653999999999993</v>
+      </c>
+      <c r="C9" s="22">
+        <v>10.741300000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
+        <v>1967</v>
+      </c>
+      <c r="B10" s="22">
+        <v>11.0549</v>
+      </c>
+      <c r="C10" s="22">
+        <v>11.9802</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
+        <v>1968</v>
+      </c>
+      <c r="B11" s="22">
+        <v>12.103</v>
+      </c>
+      <c r="C11" s="22">
+        <v>13.034000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
+        <v>1969</v>
+      </c>
+      <c r="B12" s="22">
+        <v>11.4688</v>
+      </c>
+      <c r="C12" s="22">
+        <v>12.4992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
+        <v>1970</v>
+      </c>
+      <c r="B13" s="22">
+        <v>11.349</v>
+      </c>
+      <c r="C13" s="22">
+        <v>12.901</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
+        <v>1971</v>
+      </c>
+      <c r="B14" s="22">
+        <v>16.531199999999998</v>
+      </c>
+      <c r="C14" s="22">
+        <v>18.564800000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
+        <v>1972</v>
+      </c>
+      <c r="B15" s="22">
+        <v>19.816800000000001</v>
+      </c>
+      <c r="C15" s="22">
+        <v>21.899000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
+        <v>1973</v>
+      </c>
+      <c r="B16" s="22">
+        <v>20.605</v>
+      </c>
+      <c r="C16" s="22">
+        <v>22.507000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
+        <v>1974</v>
+      </c>
+      <c r="B17" s="22">
+        <v>18.632100000000001</v>
+      </c>
+      <c r="C17" s="22">
+        <v>20.1891</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
+        <v>1975</v>
+      </c>
+      <c r="B18" s="22">
+        <v>21.575700000000001</v>
+      </c>
+      <c r="C18" s="22">
+        <v>23.3874</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
+        <v>1976</v>
+      </c>
+      <c r="B19" s="22">
+        <v>28.5532</v>
+      </c>
+      <c r="C19" s="22">
+        <v>31.007999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
+        <v>1977</v>
+      </c>
+      <c r="B20" s="22">
+        <v>39.967199999999998</v>
+      </c>
+      <c r="C20" s="22">
+        <v>44.389800000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
+        <v>1978</v>
+      </c>
+      <c r="B21" s="22">
+        <v>45.506900000000002</v>
+      </c>
+      <c r="C21" s="22">
+        <v>51.0625</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" s="12">
+        <v>1979</v>
+      </c>
+      <c r="B22" s="22">
+        <v>44.5961</v>
+      </c>
+      <c r="C22" s="22">
+        <v>50.906199999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" s="12">
+        <v>1980</v>
+      </c>
+      <c r="B23" s="22">
+        <v>35.207000000000001</v>
+      </c>
+      <c r="C23" s="22">
+        <v>41.637999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" s="12">
+        <v>1981</v>
+      </c>
+      <c r="B24" s="22">
+        <v>30.040400000000002</v>
+      </c>
+      <c r="C24" s="22">
+        <v>36.188000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" s="12">
+        <v>1982</v>
+      </c>
+      <c r="B25" s="22">
+        <v>28.551600000000001</v>
+      </c>
+      <c r="C25" s="22">
+        <v>34.566800000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" s="12">
+        <v>1983</v>
+      </c>
+      <c r="B26" s="22">
+        <v>46.911900000000003</v>
+      </c>
+      <c r="C26" s="22">
+        <v>55.945399999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" s="12">
+        <v>1984</v>
+      </c>
+      <c r="B27" s="22">
+        <v>51.056100000000001</v>
+      </c>
+      <c r="C27" s="22">
+        <v>62.366399999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" s="12">
+        <v>1985</v>
+      </c>
+      <c r="B28" s="22">
+        <v>57.998399999999997</v>
+      </c>
+      <c r="C28" s="22">
+        <v>69.350399999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" s="12">
+        <v>1986</v>
+      </c>
+      <c r="B29" s="22">
+        <v>69</v>
+      </c>
+      <c r="C29" s="22">
+        <v>83.924999999999997</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" s="12">
+        <v>1987</v>
+      </c>
+      <c r="B30" s="22">
+        <v>70.119500000000002</v>
+      </c>
+      <c r="C30" s="22">
+        <v>85.351200000000006</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" s="12">
+        <v>1988</v>
+      </c>
+      <c r="B31" s="22">
+        <v>76.05</v>
+      </c>
+      <c r="C31" s="22">
+        <v>93.490799999999993</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" s="12">
+        <v>1989</v>
+      </c>
+      <c r="B32" s="22">
+        <v>78</v>
+      </c>
+      <c r="C32" s="22">
+        <v>96.72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="12">
+        <v>1990</v>
+      </c>
+      <c r="B33" s="22">
+        <v>65.628600000000006</v>
+      </c>
+      <c r="C33" s="22">
+        <v>79.993200000000002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="12">
+        <v>1991</v>
+      </c>
+      <c r="B34" s="22">
+        <v>61.08</v>
+      </c>
+      <c r="C34" s="22">
+        <v>74.924800000000005</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="12">
+        <v>1992</v>
+      </c>
+      <c r="B35" s="22">
+        <v>74.114999999999995</v>
+      </c>
+      <c r="C35" s="22">
+        <v>87.900999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" s="12">
+        <v>1993</v>
+      </c>
+      <c r="B36" s="22">
+        <v>84.248999999999995</v>
+      </c>
+      <c r="C36" s="22">
+        <v>98.368200000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="12">
+        <v>1994</v>
+      </c>
+      <c r="B37" s="22">
+        <v>87.1</v>
+      </c>
+      <c r="C37" s="22">
+        <v>103.515</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="12">
+        <v>1995</v>
+      </c>
+      <c r="B38" s="22">
+        <v>89.311300000000003</v>
+      </c>
+      <c r="C38" s="22">
+        <v>105.85290000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="12">
+        <v>1996</v>
+      </c>
+      <c r="B39" s="22">
+        <v>105.98</v>
+      </c>
+      <c r="C39" s="22">
+        <v>125.9648</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="12">
+        <v>1997</v>
+      </c>
+      <c r="B40" s="22">
+        <v>117.384</v>
+      </c>
+      <c r="C40" s="22">
+        <v>141.66480000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="12">
+        <v>1998</v>
+      </c>
+      <c r="B41" s="22">
+        <v>135.11500000000001</v>
+      </c>
+      <c r="C41" s="22">
+        <v>161.1634</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="12">
+        <v>1999</v>
+      </c>
+      <c r="B42" s="22">
+        <v>141.68</v>
+      </c>
+      <c r="C42" s="22">
+        <v>172.12799999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="12">
+        <v>2000</v>
+      </c>
+      <c r="B43" s="22">
+        <v>148.21299999999999</v>
+      </c>
+      <c r="C43" s="22">
+        <v>181.53899999999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" s="12">
+        <v>2001</v>
+      </c>
+      <c r="B44" s="22">
+        <v>159.08160000000001</v>
+      </c>
+      <c r="C44" s="22">
+        <v>193.5856</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" s="12">
+        <v>2002</v>
+      </c>
+      <c r="B45" s="22">
+        <v>182.53479999999999</v>
+      </c>
+      <c r="C45" s="22">
+        <v>222.52510000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" s="12">
+        <v>2003</v>
+      </c>
+      <c r="B46" s="22">
+        <v>211.77</v>
+      </c>
+      <c r="C46" s="22">
+        <v>267.48180000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="12">
+        <v>2004</v>
+      </c>
+      <c r="B47" s="22">
+        <v>265.863</v>
+      </c>
+      <c r="C47" s="22">
+        <v>330.2235</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="12">
+        <v>2005</v>
+      </c>
+      <c r="B48" s="22">
+        <v>309.07470000000001</v>
+      </c>
+      <c r="C48" s="22">
+        <v>381.05099999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="12">
+        <v>2006</v>
+      </c>
+      <c r="B49" s="22">
+        <v>259.07150000000001</v>
+      </c>
+      <c r="C49" s="22">
+        <v>321.5009</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="12">
+        <v>2007</v>
+      </c>
+      <c r="B50" s="22">
+        <v>192.37039999999999</v>
+      </c>
+      <c r="C50" s="22">
+        <v>243.3536</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="12">
+        <v>2008</v>
+      </c>
+      <c r="B51" s="22">
+        <v>112.5685</v>
+      </c>
+      <c r="C51" s="22">
+        <v>141.911</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="12">
+        <v>2009</v>
+      </c>
+      <c r="B52" s="22">
+        <v>81.262500000000003</v>
+      </c>
+      <c r="C52" s="22">
+        <v>101.58750000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="12">
+        <v>2010</v>
+      </c>
+      <c r="B53" s="22">
+        <v>71.641400000000004</v>
+      </c>
+      <c r="C53" s="22">
+        <v>88.146699999999996</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="12">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="22">
+        <v>69.523200000000003</v>
+      </c>
+      <c r="C54" s="22">
+        <v>81.977400000000003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="12">
+        <v>2012</v>
+      </c>
+      <c r="B55" s="22">
+        <v>90.233599999999996</v>
+      </c>
+      <c r="C55" s="22">
+        <v>107.5296</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="12">
+        <v>2013</v>
+      </c>
+      <c r="B56" s="22">
+        <v>115.35809999999999</v>
+      </c>
+      <c r="C56" s="22">
+        <v>139.2105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="12">
+        <v>2014</v>
+      </c>
+      <c r="B57" s="22">
+        <v>126.0745</v>
+      </c>
+      <c r="C57" s="22">
+        <v>151.94489999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="12">
+        <v>2015</v>
+      </c>
+      <c r="B58" s="22">
+        <v>147.39420000000001</v>
+      </c>
+      <c r="C58" s="22">
+        <v>176.70269999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="12">
+        <v>2016</v>
+      </c>
+      <c r="B59" s="22">
+        <v>172.67580000000001</v>
+      </c>
+      <c r="C59" s="22">
+        <v>202.4649</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="12">
+        <v>2017</v>
+      </c>
+      <c r="B60" s="22">
+        <v>198.06030000000001</v>
+      </c>
+      <c r="C60" s="22">
+        <v>235.94370000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="12">
+        <v>2018</v>
+      </c>
+      <c r="B61" s="22">
+        <v>201.3888</v>
+      </c>
+      <c r="C61" s="22">
+        <v>237.54499999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="12">
+        <v>2019</v>
+      </c>
+      <c r="B62" s="22">
+        <v>219.58449999999999</v>
+      </c>
+      <c r="C62" s="22">
+        <v>262.20370000000003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="12">
+        <v>2020</v>
+      </c>
+      <c r="B63" s="22">
+        <v>276.93180000000001</v>
+      </c>
+      <c r="C63" s="22">
+        <v>322.14179999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="12">
+        <v>2021</v>
+      </c>
+      <c r="B64" s="22">
+        <v>306.16410000000002</v>
+      </c>
+      <c r="C64" s="22">
+        <v>357.89819999999997</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A1:C1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559305EB-3C1A-684E-B80A-B5582192B003}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A31" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC9BFC92-99C8-D745-BC52-1159C1243CBF}">
+  <dimension ref="X3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X2" sqref="X2:AC2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="24" max="24" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="24:24" x14ac:dyDescent="0.2">
+      <c r="X3">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/US_Housing_Macro_Analysis.xlsx
+++ b/US_Housing_Macro_Analysis.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/GitHub/US_Housing_Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77981CB5-A4C5-6F40-B642-5CEC49FD1A7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5534DE2-2ABF-A147-8B91-737EFA308A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
   </bookViews>
@@ -138,13 +138,13 @@
     <t>% Loss</t>
   </si>
   <si>
-    <t>Years of Gain</t>
-  </si>
-  <si>
     <t>% Gain</t>
   </si>
   <si>
-    <t>Years of Loss</t>
+    <t>Years of Expansion</t>
+  </si>
+  <si>
+    <t>Years of Recession</t>
   </si>
 </sst>
 </file>
@@ -5889,19 +5889,19 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -5932,10 +5932,10 @@
         <v>18</v>
       </c>
       <c r="D5" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="24" t="s">
         <v>25</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>26</v>
       </c>
       <c r="F5" s="25" t="s">
         <v>22</v>
@@ -5965,6 +5965,9 @@
       <c r="D6">
         <v>0</v>
       </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="12">
@@ -5976,6 +5979,9 @@
       <c r="C7" s="22">
         <v>11.5825</v>
       </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
@@ -5986,6 +5992,15 @@
       </c>
       <c r="C8" s="22">
         <v>12.362500000000001</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>1965</v>
+      </c>
+      <c r="G8">
+        <v>1966</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -6617,7 +6632,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559305EB-3C1A-684E-B80A-B5582192B003}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0"/>
+    <sheetView topLeftCell="A7" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/US_Housing_Macro_Analysis.xlsx
+++ b/US_Housing_Macro_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/GitHub/US_Housing_Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5534DE2-2ABF-A147-8B91-737EFA308A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A974F-75A5-0948-A5BB-E6B0FE1C04EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34560" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
+    <workbookView xWindow="-160" yWindow="760" windowWidth="34560" windowHeight="19680" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
   </bookViews>
   <sheets>
     <sheet name="# Sold" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
   <si>
     <t>Houses Sold by Region</t>
   </si>
@@ -141,10 +141,19 @@
     <t>% Gain</t>
   </si>
   <si>
-    <t>Years of Expansion</t>
+    <t>Period of Expansion</t>
   </si>
   <si>
-    <t>Years of Recession</t>
+    <t>Period of Recession</t>
+  </si>
+  <si>
+    <t>Average Revenue by Year</t>
+  </si>
+  <si>
+    <t>Actual US</t>
+  </si>
+  <si>
+    <t>Sales</t>
   </si>
 </sst>
 </file>
@@ -155,7 +164,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="168" formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -329,17 +338,11 @@
   </cellStyleXfs>
   <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -347,17 +350,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -370,12 +367,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -392,12 +383,30 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -494,11 +503,11 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Average Revenue of US Home sale'!$B$5</c:f>
+              <c:f>'Average Revenue of US Home sale'!#REF!</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Median </c:v>
+                  <c:v>#REF!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -711,186 +720,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Average Revenue of US Home sale'!$B$6:$B$64</c:f>
+              <c:f>'Average Revenue of US Home sale'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.6785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8653999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0549</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.4688</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.349</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.531199999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.816800000000001</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>20.605</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>18.632100000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>21.575700000000001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>28.5532</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>39.967199999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>45.506900000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>44.5961</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>35.207000000000001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>30.040400000000002</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>28.551600000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>46.911900000000003</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>51.056100000000001</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>57.998399999999997</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>70.119500000000002</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>76.05</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>65.628600000000006</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>61.08</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>74.114999999999995</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>84.248999999999995</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>87.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>89.311300000000003</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>105.98</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>117.384</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>135.11500000000001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>141.68</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>148.21299999999999</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>159.08160000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>182.53479999999999</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>211.77</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>265.863</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>309.07470000000001</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>259.07150000000001</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>192.37039999999999</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>112.5685</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>81.262500000000003</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>71.641400000000004</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>69.523200000000003</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>90.233599999999996</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>115.35809999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>126.0745</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>147.39420000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>172.67580000000001</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>198.06030000000001</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>201.3888</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>219.58449999999999</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>276.93180000000001</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>306.16410000000002</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -907,11 +742,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Average Revenue of US Home sale'!$C$5</c:f>
+              <c:f>'Average Revenue of US Home sale'!$B$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Average</c:v>
+                  <c:v>Average Revenue by Year</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1124,186 +959,186 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Average Revenue of US Home sale'!$C$6:$C$64</c:f>
+              <c:f>'Average Revenue of US Home sale'!$B$6:$B$64</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="59"/>
                 <c:pt idx="0">
-                  <c:v>10.808</c:v>
+                  <c:v>10808000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5825</c:v>
+                  <c:v>11582500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.362500000000001</c:v>
+                  <c:v>12362500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.741300000000001</c:v>
+                  <c:v>10741300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.9802</c:v>
+                  <c:v>11980200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.034000000000001</c:v>
+                  <c:v>13034000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.4992</c:v>
+                  <c:v>12499200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.901</c:v>
+                  <c:v>12901000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.564800000000002</c:v>
+                  <c:v>18564800000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.899000000000001</c:v>
+                  <c:v>21899000000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>22.507000000000001</c:v>
+                  <c:v>22507000000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20.1891</c:v>
+                  <c:v>20189100000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>23.3874</c:v>
+                  <c:v>23387400000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31.007999999999999</c:v>
+                  <c:v>31008000000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>44.389800000000001</c:v>
+                  <c:v>44389800000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>51.0625</c:v>
+                  <c:v>51062500000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50.906199999999998</c:v>
+                  <c:v>50906200000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>41.637999999999998</c:v>
+                  <c:v>41638000000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>36.188000000000002</c:v>
+                  <c:v>36188000000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>34.566800000000001</c:v>
+                  <c:v>34566800000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>55.945399999999999</c:v>
+                  <c:v>55945400000</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62.366399999999999</c:v>
+                  <c:v>62366400000</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>69.350399999999993</c:v>
+                  <c:v>69350400000</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83.924999999999997</c:v>
+                  <c:v>83925000000</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>85.351200000000006</c:v>
+                  <c:v>85351200000</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>93.490799999999993</c:v>
+                  <c:v>93490800000</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>96.72</c:v>
+                  <c:v>96720000000</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>79.993200000000002</c:v>
+                  <c:v>79993200000</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>74.924800000000005</c:v>
+                  <c:v>74924800000</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>87.900999999999996</c:v>
+                  <c:v>87901000000</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>98.368200000000002</c:v>
+                  <c:v>98368200000</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>103.515</c:v>
+                  <c:v>103515000000</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>105.85290000000001</c:v>
+                  <c:v>105852900000</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>125.9648</c:v>
+                  <c:v>125964800000</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>141.66480000000001</c:v>
+                  <c:v>141664800000</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>161.1634</c:v>
+                  <c:v>161163400000</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>172.12799999999999</c:v>
+                  <c:v>172128000000</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>181.53899999999999</c:v>
+                  <c:v>181539000000</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>193.5856</c:v>
+                  <c:v>193585600000</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>222.52510000000001</c:v>
+                  <c:v>222525100000</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>267.48180000000002</c:v>
+                  <c:v>267481800000</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>330.2235</c:v>
+                  <c:v>330223500000</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>381.05099999999999</c:v>
+                  <c:v>381051000000</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>321.5009</c:v>
+                  <c:v>321500900000</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>243.3536</c:v>
+                  <c:v>243353600000</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>141.911</c:v>
+                  <c:v>141911000000</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>101.58750000000001</c:v>
+                  <c:v>101587500000</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>88.146699999999996</c:v>
+                  <c:v>88146700000</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>81.977400000000003</c:v>
+                  <c:v>81977400000</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>107.5296</c:v>
+                  <c:v>107529600000</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>139.2105</c:v>
+                  <c:v>139210500000</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>151.94489999999999</c:v>
+                  <c:v>151944900000</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>176.70269999999999</c:v>
+                  <c:v>176702700000</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>202.4649</c:v>
+                  <c:v>202464900000</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>235.94370000000001</c:v>
+                  <c:v>235943700000</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>237.54499999999999</c:v>
+                  <c:v>237545000000</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>262.20370000000003</c:v>
+                  <c:v>262203700000</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>322.14179999999999</c:v>
+                  <c:v>322141800000</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>357.89819999999997</c:v>
+                  <c:v>357898200000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1428,7 +1263,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1629,39 +1464,12 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Average Revenue of US Home sale'!$B$6:$B$15</c:f>
+              <c:f>'Average Revenue of US Home sale'!#REF!</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>10.08</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>10.6785</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11.5</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9.8653999999999993</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11.0549</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12.103</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>11.4688</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>11.349</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>16.531199999999998</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>19.816800000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1735,39 +1543,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Average Revenue of US Home sale'!$C$6:$C$15</c:f>
+              <c:f>'Average Revenue of US Home sale'!$B$6:$B$15</c:f>
               <c:numCache>
-                <c:formatCode>_("$"* #,##0.0_);_("$"* \(#,##0.0\);_("$"* "-"??_);_(@_)</c:formatCode>
+                <c:formatCode>_("$"* #,##0_);_("$"* \(#,##0\);_("$"* "-"??_);_(@_)</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10.808</c:v>
+                  <c:v>10808000000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>11.5825</c:v>
+                  <c:v>11582500000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.362500000000001</c:v>
+                  <c:v>12362500000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10.741300000000001</c:v>
+                  <c:v>10741300000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.9802</c:v>
+                  <c:v>11980200000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13.034000000000001</c:v>
+                  <c:v>13034000000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>12.4992</c:v>
+                  <c:v>12499200000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>12.901</c:v>
+                  <c:v>12901000000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>18.564800000000002</c:v>
+                  <c:v>18564800000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>21.899000000000001</c:v>
+                  <c:v>21899000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,7 +1700,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="_(&quot;$&quot;* #,##0.0_);_(&quot;$&quot;* \(#,##0.0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -3591,8 +3399,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:I72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10:B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3728,14 +3536,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="I2" t="s">
@@ -3743,1294 +3551,1536 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="21"/>
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="7"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="21"/>
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="E9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>1963</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10">
+        <f>C10*1000</f>
+        <v>560000</v>
+      </c>
+      <c r="C10" s="9">
         <v>560</v>
       </c>
-      <c r="C10" s="13">
+      <c r="D10" s="9">
         <v>87</v>
       </c>
-      <c r="D10" s="13">
+      <c r="E10" s="9">
         <v>134</v>
       </c>
-      <c r="E10" s="13">
+      <c r="F10" s="9">
         <v>199</v>
       </c>
-      <c r="F10" s="13">
+      <c r="G10" s="9">
         <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="8">
         <v>1964</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11">
+        <f t="shared" ref="B11:B68" si="0">C11*1000</f>
+        <v>565000</v>
+      </c>
+      <c r="C11" s="9">
         <v>565</v>
       </c>
-      <c r="C11" s="13">
+      <c r="D11" s="9">
         <v>90</v>
       </c>
-      <c r="D11" s="13">
+      <c r="E11" s="9">
         <v>146</v>
       </c>
-      <c r="E11" s="13">
+      <c r="F11" s="9">
         <v>200</v>
       </c>
-      <c r="F11" s="13">
+      <c r="G11" s="9">
         <v>129</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="8">
         <v>1965</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>575000</v>
+      </c>
+      <c r="C12" s="9">
         <v>575</v>
       </c>
-      <c r="C12" s="13">
+      <c r="D12" s="9">
         <v>94</v>
       </c>
-      <c r="D12" s="13">
+      <c r="E12" s="9">
         <v>142</v>
       </c>
-      <c r="E12" s="13">
+      <c r="F12" s="9">
         <v>210</v>
       </c>
-      <c r="F12" s="13">
+      <c r="G12" s="9">
         <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="8">
         <v>1966</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>461000</v>
+      </c>
+      <c r="C13" s="9">
         <v>461</v>
       </c>
-      <c r="C13" s="13">
+      <c r="D13" s="9">
         <v>84</v>
       </c>
-      <c r="D13" s="13">
+      <c r="E13" s="9">
         <v>113</v>
       </c>
-      <c r="E13" s="13">
+      <c r="F13" s="9">
         <v>166</v>
       </c>
-      <c r="F13" s="13">
+      <c r="G13" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>1967</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>487000</v>
+      </c>
+      <c r="C14" s="9">
         <v>487</v>
       </c>
-      <c r="C14" s="13">
+      <c r="D14" s="9">
         <v>77</v>
       </c>
-      <c r="D14" s="13">
+      <c r="E14" s="9">
         <v>112</v>
       </c>
-      <c r="E14" s="13">
+      <c r="F14" s="9">
         <v>179</v>
       </c>
-      <c r="F14" s="13">
+      <c r="G14" s="9">
         <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>1968</v>
       </c>
-      <c r="B15" s="13">
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>490000</v>
+      </c>
+      <c r="C15" s="9">
         <v>490</v>
       </c>
-      <c r="C15" s="13">
+      <c r="D15" s="9">
         <v>73</v>
       </c>
-      <c r="D15" s="13">
+      <c r="E15" s="9">
         <v>119</v>
       </c>
-      <c r="E15" s="13">
+      <c r="F15" s="9">
         <v>177</v>
       </c>
-      <c r="F15" s="13">
+      <c r="G15" s="9">
         <v>121</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>1969</v>
       </c>
-      <c r="B16" s="13">
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>448000</v>
+      </c>
+      <c r="C16" s="9">
         <v>448</v>
       </c>
-      <c r="C16" s="13">
+      <c r="D16" s="9">
         <v>62</v>
       </c>
-      <c r="D16" s="13">
+      <c r="E16" s="9">
         <v>97</v>
       </c>
-      <c r="E16" s="13">
+      <c r="F16" s="9">
         <v>175</v>
       </c>
-      <c r="F16" s="13">
+      <c r="G16" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+    <row r="17" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>1970</v>
       </c>
-      <c r="B17" s="13">
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
+      <c r="C17" s="9">
         <v>485</v>
       </c>
-      <c r="C17" s="13">
+      <c r="D17" s="9">
         <v>61</v>
       </c>
-      <c r="D17" s="13">
+      <c r="E17" s="9">
         <v>100</v>
       </c>
-      <c r="E17" s="13">
+      <c r="F17" s="9">
         <v>203</v>
       </c>
-      <c r="F17" s="13">
+      <c r="G17" s="9">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+    <row r="18" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>1971</v>
       </c>
-      <c r="B18" s="13">
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>656000</v>
+      </c>
+      <c r="C18" s="9">
         <v>656</v>
       </c>
-      <c r="C18" s="13">
+      <c r="D18" s="9">
         <v>82</v>
       </c>
-      <c r="D18" s="13">
+      <c r="E18" s="9">
         <v>127</v>
       </c>
-      <c r="E18" s="13">
+      <c r="F18" s="9">
         <v>270</v>
       </c>
-      <c r="F18" s="13">
+      <c r="G18" s="9">
         <v>176</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+    <row r="19" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>1972</v>
       </c>
-      <c r="B19" s="13">
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>718000</v>
+      </c>
+      <c r="C19" s="9">
         <v>718</v>
       </c>
-      <c r="C19" s="13">
+      <c r="D19" s="9">
         <v>96</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="9">
         <v>130</v>
       </c>
-      <c r="E19" s="13">
+      <c r="F19" s="9">
         <v>305</v>
       </c>
-      <c r="F19" s="13">
+      <c r="G19" s="9">
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+    <row r="20" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>1973</v>
       </c>
-      <c r="B20" s="13">
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>634000</v>
+      </c>
+      <c r="C20" s="9">
         <v>634</v>
       </c>
-      <c r="C20" s="13">
+      <c r="D20" s="9">
         <v>95</v>
       </c>
-      <c r="D20" s="13">
+      <c r="E20" s="9">
         <v>120</v>
       </c>
-      <c r="E20" s="13">
+      <c r="F20" s="9">
         <v>257</v>
       </c>
-      <c r="F20" s="13">
+      <c r="G20" s="9">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+    <row r="21" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>1974</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>519000</v>
+      </c>
+      <c r="C21" s="9">
         <v>519</v>
       </c>
-      <c r="C21" s="13">
+      <c r="D21" s="9">
         <v>69</v>
       </c>
-      <c r="D21" s="13">
+      <c r="E21" s="9">
         <v>103</v>
       </c>
-      <c r="E21" s="13">
+      <c r="F21" s="9">
         <v>207</v>
       </c>
-      <c r="F21" s="13">
+      <c r="G21" s="9">
         <v>139</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+    <row r="22" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>1975</v>
       </c>
-      <c r="B22" s="13">
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>549000</v>
+      </c>
+      <c r="C22" s="9">
         <v>549</v>
       </c>
-      <c r="C22" s="13">
+      <c r="D22" s="9">
         <v>71</v>
       </c>
-      <c r="D22" s="13">
+      <c r="E22" s="9">
         <v>106</v>
       </c>
-      <c r="E22" s="13">
+      <c r="F22" s="9">
         <v>222</v>
       </c>
-      <c r="F22" s="13">
+      <c r="G22" s="9">
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+    <row r="23" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>1976</v>
       </c>
-      <c r="B23" s="13">
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>646000</v>
+      </c>
+      <c r="C23" s="9">
         <v>646</v>
       </c>
-      <c r="C23" s="13">
+      <c r="D23" s="9">
         <v>72</v>
       </c>
-      <c r="D23" s="13">
+      <c r="E23" s="9">
         <v>128</v>
       </c>
-      <c r="E23" s="13">
+      <c r="F23" s="9">
         <v>247</v>
       </c>
-      <c r="F23" s="13">
+      <c r="G23" s="9">
         <v>199</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+    <row r="24" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>1977</v>
       </c>
-      <c r="B24" s="13">
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>819000</v>
+      </c>
+      <c r="C24" s="9">
         <v>819</v>
       </c>
-      <c r="C24" s="13">
+      <c r="D24" s="9">
         <v>86</v>
       </c>
-      <c r="D24" s="13">
+      <c r="E24" s="9">
         <v>162</v>
       </c>
-      <c r="E24" s="13">
+      <c r="F24" s="9">
         <v>317</v>
       </c>
-      <c r="F24" s="13">
+      <c r="G24" s="9">
         <v>255</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+    <row r="25" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>1978</v>
       </c>
-      <c r="B25" s="13">
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>817000</v>
+      </c>
+      <c r="C25" s="9">
         <v>817</v>
       </c>
-      <c r="C25" s="13">
+      <c r="D25" s="9">
         <v>78</v>
       </c>
-      <c r="D25" s="13">
+      <c r="E25" s="9">
         <v>145</v>
       </c>
-      <c r="E25" s="13">
+      <c r="F25" s="9">
         <v>331</v>
       </c>
-      <c r="F25" s="13">
+      <c r="G25" s="9">
         <v>262</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+    <row r="26" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>1979</v>
       </c>
-      <c r="B26" s="13">
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>709000</v>
+      </c>
+      <c r="C26" s="9">
         <v>709</v>
       </c>
-      <c r="C26" s="13">
+      <c r="D26" s="9">
         <v>67</v>
       </c>
-      <c r="D26" s="13">
+      <c r="E26" s="9">
         <v>112</v>
       </c>
-      <c r="E26" s="13">
+      <c r="F26" s="9">
         <v>304</v>
       </c>
-      <c r="F26" s="13">
+      <c r="G26" s="9">
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+    <row r="27" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>1980</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>545000</v>
+      </c>
+      <c r="C27" s="9">
         <v>545</v>
       </c>
-      <c r="C27" s="13">
+      <c r="D27" s="9">
         <v>50</v>
       </c>
-      <c r="D27" s="13">
+      <c r="E27" s="9">
         <v>81</v>
       </c>
-      <c r="E27" s="13">
+      <c r="F27" s="9">
         <v>267</v>
       </c>
-      <c r="F27" s="13">
+      <c r="G27" s="9">
         <v>145</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+    <row r="28" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>1981</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>436000</v>
+      </c>
+      <c r="C28" s="9">
         <v>436</v>
       </c>
-      <c r="C28" s="13">
+      <c r="D28" s="9">
         <v>46</v>
       </c>
-      <c r="D28" s="13">
+      <c r="E28" s="9">
         <v>60</v>
       </c>
-      <c r="E28" s="13">
+      <c r="F28" s="9">
         <v>219</v>
       </c>
-      <c r="F28" s="13">
+      <c r="G28" s="9">
         <v>112</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+    <row r="29" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>1982</v>
       </c>
-      <c r="B29" s="13">
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>412000</v>
+      </c>
+      <c r="C29" s="9">
         <v>412</v>
       </c>
-      <c r="C29" s="13">
+      <c r="D29" s="9">
         <v>47</v>
       </c>
-      <c r="D29" s="13">
+      <c r="E29" s="9">
         <v>48</v>
       </c>
-      <c r="E29" s="13">
+      <c r="F29" s="9">
         <v>219</v>
       </c>
-      <c r="F29" s="13">
+      <c r="G29" s="9">
         <v>99</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+    <row r="30" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>1983</v>
       </c>
-      <c r="B30" s="13">
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>623000</v>
+      </c>
+      <c r="C30" s="9">
         <v>623</v>
       </c>
-      <c r="C30" s="13">
+      <c r="D30" s="9">
         <v>76</v>
       </c>
-      <c r="D30" s="13">
+      <c r="E30" s="9">
         <v>71</v>
       </c>
-      <c r="E30" s="13">
+      <c r="F30" s="9">
         <v>323</v>
       </c>
-      <c r="F30" s="13">
+      <c r="G30" s="9">
         <v>152</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+    <row r="31" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>1984</v>
       </c>
-      <c r="B31" s="13">
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>639000</v>
+      </c>
+      <c r="C31" s="9">
         <v>639</v>
       </c>
-      <c r="C31" s="13">
+      <c r="D31" s="9">
         <v>94</v>
       </c>
-      <c r="D31" s="13">
+      <c r="E31" s="9">
         <v>76</v>
       </c>
-      <c r="E31" s="13">
+      <c r="F31" s="9">
         <v>309</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+    <row r="32" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>1985</v>
       </c>
-      <c r="B32" s="13">
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>688000</v>
+      </c>
+      <c r="C32" s="9">
         <v>688</v>
       </c>
-      <c r="C32" s="13">
+      <c r="D32" s="9">
         <v>112</v>
       </c>
-      <c r="D32" s="13">
+      <c r="E32" s="9">
         <v>82</v>
       </c>
-      <c r="E32" s="13">
+      <c r="F32" s="9">
         <v>323</v>
       </c>
-      <c r="F32" s="13">
+      <c r="G32" s="9">
         <v>171</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+    <row r="33" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>1986</v>
       </c>
-      <c r="B33" s="13">
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>750000</v>
+      </c>
+      <c r="C33" s="9">
         <v>750</v>
       </c>
-      <c r="C33" s="13">
+      <c r="D33" s="9">
         <v>136</v>
       </c>
-      <c r="D33" s="13">
+      <c r="E33" s="9">
         <v>96</v>
       </c>
-      <c r="E33" s="13">
+      <c r="F33" s="9">
         <v>322</v>
       </c>
-      <c r="F33" s="13">
+      <c r="G33" s="9">
         <v>196</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+    <row r="34" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>1987</v>
       </c>
-      <c r="B34" s="13">
+      <c r="B34">
+        <f t="shared" si="0"/>
+        <v>671000</v>
+      </c>
+      <c r="C34" s="9">
         <v>671</v>
       </c>
-      <c r="C34" s="13">
+      <c r="D34" s="9">
         <v>117</v>
       </c>
-      <c r="D34" s="13">
+      <c r="E34" s="9">
         <v>97</v>
       </c>
-      <c r="E34" s="13">
+      <c r="F34" s="9">
         <v>271</v>
       </c>
-      <c r="F34" s="13">
+      <c r="G34" s="9">
         <v>186</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+    <row r="35" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>1988</v>
       </c>
-      <c r="B35" s="13">
+      <c r="B35">
+        <f t="shared" si="0"/>
+        <v>676000</v>
+      </c>
+      <c r="C35" s="9">
         <v>676</v>
       </c>
-      <c r="C35" s="13">
+      <c r="D35" s="9">
         <v>101</v>
       </c>
-      <c r="D35" s="13">
+      <c r="E35" s="9">
         <v>97</v>
       </c>
-      <c r="E35" s="13">
+      <c r="F35" s="9">
         <v>276</v>
       </c>
-      <c r="F35" s="13">
+      <c r="G35" s="9">
         <v>202</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+    <row r="36" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>1989</v>
       </c>
-      <c r="B36" s="13">
+      <c r="B36">
+        <f t="shared" si="0"/>
+        <v>650000</v>
+      </c>
+      <c r="C36" s="9">
         <v>650</v>
       </c>
-      <c r="C36" s="13">
+      <c r="D36" s="9">
         <v>86</v>
       </c>
-      <c r="D36" s="13">
+      <c r="E36" s="9">
         <v>102</v>
       </c>
-      <c r="E36" s="13">
+      <c r="F36" s="9">
         <v>260</v>
       </c>
-      <c r="F36" s="13">
+      <c r="G36" s="9">
         <v>202</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+    <row r="37" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>1990</v>
       </c>
-      <c r="B37" s="13">
+      <c r="B37">
+        <f t="shared" si="0"/>
+        <v>534000</v>
+      </c>
+      <c r="C37" s="9">
         <v>534</v>
       </c>
-      <c r="C37" s="13">
+      <c r="D37" s="9">
         <v>71</v>
       </c>
-      <c r="D37" s="13">
+      <c r="E37" s="9">
         <v>89</v>
       </c>
-      <c r="E37" s="13">
+      <c r="F37" s="9">
         <v>225</v>
       </c>
-      <c r="F37" s="13">
+      <c r="G37" s="9">
         <v>149</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+    <row r="38" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>1991</v>
       </c>
-      <c r="B38" s="13">
+      <c r="B38">
+        <f t="shared" si="0"/>
+        <v>509000</v>
+      </c>
+      <c r="C38" s="9">
         <v>509</v>
       </c>
-      <c r="C38" s="13">
+      <c r="D38" s="9">
         <v>57</v>
       </c>
-      <c r="D38" s="13">
+      <c r="E38" s="9">
         <v>93</v>
       </c>
-      <c r="E38" s="13">
+      <c r="F38" s="9">
         <v>215</v>
       </c>
-      <c r="F38" s="13">
+      <c r="G38" s="9">
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+    <row r="39" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>1992</v>
       </c>
-      <c r="B39" s="13">
+      <c r="B39">
+        <f t="shared" si="0"/>
+        <v>610000</v>
+      </c>
+      <c r="C39" s="9">
         <v>610</v>
       </c>
-      <c r="C39" s="13">
+      <c r="D39" s="9">
         <v>65</v>
       </c>
-      <c r="D39" s="13">
+      <c r="E39" s="9">
         <v>116</v>
       </c>
-      <c r="E39" s="13">
+      <c r="F39" s="9">
         <v>259</v>
       </c>
-      <c r="F39" s="13">
+      <c r="G39" s="9">
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+    <row r="40" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>1993</v>
       </c>
-      <c r="B40" s="13">
+      <c r="B40">
+        <f t="shared" si="0"/>
+        <v>666000</v>
+      </c>
+      <c r="C40" s="9">
         <v>666</v>
       </c>
-      <c r="C40" s="13">
+      <c r="D40" s="9">
         <v>60</v>
       </c>
-      <c r="D40" s="13">
+      <c r="E40" s="9">
         <v>123</v>
       </c>
-      <c r="E40" s="13">
+      <c r="F40" s="9">
         <v>295</v>
       </c>
-      <c r="F40" s="13">
+      <c r="G40" s="9">
         <v>188</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+    <row r="41" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>1994</v>
       </c>
-      <c r="B41" s="13">
+      <c r="B41">
+        <f t="shared" si="0"/>
+        <v>670000</v>
+      </c>
+      <c r="C41" s="9">
         <v>670</v>
       </c>
-      <c r="C41" s="13">
+      <c r="D41" s="9">
         <v>61</v>
       </c>
-      <c r="D41" s="13">
+      <c r="E41" s="9">
         <v>123</v>
       </c>
-      <c r="E41" s="13">
+      <c r="F41" s="9">
         <v>295</v>
       </c>
-      <c r="F41" s="13">
+      <c r="G41" s="9">
         <v>191</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+    <row r="42" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>1995</v>
       </c>
-      <c r="B42" s="13">
+      <c r="B42">
+        <f t="shared" si="0"/>
+        <v>667000</v>
+      </c>
+      <c r="C42" s="9">
         <v>667</v>
       </c>
-      <c r="C42" s="13">
+      <c r="D42" s="9">
         <v>55</v>
       </c>
-      <c r="D42" s="13">
+      <c r="E42" s="9">
         <v>125</v>
       </c>
-      <c r="E42" s="13">
+      <c r="F42" s="9">
         <v>300</v>
       </c>
-      <c r="F42" s="13">
+      <c r="G42" s="9">
         <v>187</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+    <row r="43" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>1996</v>
       </c>
-      <c r="B43" s="13">
+      <c r="B43">
+        <f t="shared" si="0"/>
+        <v>757000</v>
+      </c>
+      <c r="C43" s="9">
         <v>757</v>
       </c>
-      <c r="C43" s="13">
+      <c r="D43" s="9">
         <v>74</v>
       </c>
-      <c r="D43" s="13">
+      <c r="E43" s="9">
         <v>137</v>
       </c>
-      <c r="E43" s="13">
+      <c r="F43" s="9">
         <v>337</v>
       </c>
-      <c r="F43" s="13">
+      <c r="G43" s="9">
         <v>209</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+    <row r="44" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>1997</v>
       </c>
-      <c r="B44" s="13">
+      <c r="B44">
+        <f t="shared" si="0"/>
+        <v>804000</v>
+      </c>
+      <c r="C44" s="9">
         <v>804</v>
       </c>
-      <c r="C44" s="13">
+      <c r="D44" s="9">
         <v>78</v>
       </c>
-      <c r="D44" s="13">
+      <c r="E44" s="9">
         <v>140</v>
       </c>
-      <c r="E44" s="13">
+      <c r="F44" s="9">
         <v>363</v>
       </c>
-      <c r="F44" s="13">
+      <c r="G44" s="9">
         <v>223</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+    <row r="45" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>1998</v>
       </c>
-      <c r="B45" s="13">
+      <c r="B45">
+        <f t="shared" si="0"/>
+        <v>886000</v>
+      </c>
+      <c r="C45" s="9">
         <v>886</v>
       </c>
-      <c r="C45" s="13">
+      <c r="D45" s="9">
         <v>81</v>
       </c>
-      <c r="D45" s="13">
+      <c r="E45" s="9">
         <v>164</v>
       </c>
-      <c r="E45" s="13">
+      <c r="F45" s="9">
         <v>398</v>
       </c>
-      <c r="F45" s="13">
+      <c r="G45" s="9">
         <v>243</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+    <row r="46" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>1999</v>
       </c>
-      <c r="B46" s="13">
+      <c r="B46">
+        <f t="shared" si="0"/>
+        <v>880000</v>
+      </c>
+      <c r="C46" s="9">
         <v>880</v>
       </c>
-      <c r="C46" s="13">
+      <c r="D46" s="9">
         <v>76</v>
       </c>
-      <c r="D46" s="13">
+      <c r="E46" s="9">
         <v>168</v>
       </c>
-      <c r="E46" s="13">
+      <c r="F46" s="9">
         <v>395</v>
       </c>
-      <c r="F46" s="13">
+      <c r="G46" s="9">
         <v>242</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+    <row r="47" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>2000</v>
       </c>
-      <c r="B47" s="13">
+      <c r="B47">
+        <f t="shared" si="0"/>
+        <v>877000</v>
+      </c>
+      <c r="C47" s="9">
         <v>877</v>
       </c>
-      <c r="C47" s="13">
+      <c r="D47" s="9">
         <v>71</v>
       </c>
-      <c r="D47" s="13">
+      <c r="E47" s="9">
         <v>155</v>
       </c>
-      <c r="E47" s="13">
+      <c r="F47" s="9">
         <v>406</v>
       </c>
-      <c r="F47" s="13">
+      <c r="G47" s="9">
         <v>244</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+    <row r="48" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>2001</v>
       </c>
-      <c r="B48" s="13">
+      <c r="B48">
+        <f t="shared" si="0"/>
+        <v>908000</v>
+      </c>
+      <c r="C48" s="9">
         <v>908</v>
       </c>
-      <c r="C48" s="13">
+      <c r="D48" s="9">
         <v>66</v>
       </c>
-      <c r="D48" s="13">
+      <c r="E48" s="9">
         <v>164</v>
       </c>
-      <c r="E48" s="13">
+      <c r="F48" s="9">
         <v>439</v>
       </c>
-      <c r="F48" s="13">
+      <c r="G48" s="9">
         <v>239</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+    <row r="49" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>2002</v>
       </c>
-      <c r="B49" s="13">
+      <c r="B49">
+        <f t="shared" si="0"/>
+        <v>973000</v>
+      </c>
+      <c r="C49" s="9">
         <v>973</v>
       </c>
-      <c r="C49" s="13">
+      <c r="D49" s="9">
         <v>65</v>
       </c>
-      <c r="D49" s="13">
+      <c r="E49" s="9">
         <v>185</v>
       </c>
-      <c r="E49" s="13">
+      <c r="F49" s="9">
         <v>450</v>
       </c>
-      <c r="F49" s="13">
+      <c r="G49" s="9">
         <v>273</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+    <row r="50" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>2003</v>
       </c>
-      <c r="B50" s="13">
+      <c r="B50">
+        <f t="shared" si="0"/>
+        <v>1086000</v>
+      </c>
+      <c r="C50" s="9">
         <v>1086</v>
       </c>
-      <c r="C50" s="13">
+      <c r="D50" s="9">
         <v>79</v>
       </c>
-      <c r="D50" s="13">
+      <c r="E50" s="9">
         <v>189</v>
       </c>
-      <c r="E50" s="13">
+      <c r="F50" s="9">
         <v>511</v>
       </c>
-      <c r="F50" s="13">
+      <c r="G50" s="9">
         <v>307</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+    <row r="51" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>2004</v>
       </c>
-      <c r="B51" s="13">
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>1203000</v>
+      </c>
+      <c r="C51" s="9">
         <v>1203</v>
       </c>
-      <c r="C51" s="13">
+      <c r="D51" s="9">
         <v>83</v>
       </c>
-      <c r="D51" s="13">
+      <c r="E51" s="9">
         <v>210</v>
       </c>
-      <c r="E51" s="13">
+      <c r="F51" s="9">
         <v>562</v>
       </c>
-      <c r="F51" s="13">
+      <c r="G51" s="9">
         <v>348</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+    <row r="52" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>2005</v>
       </c>
-      <c r="B52" s="13">
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>1283000</v>
+      </c>
+      <c r="C52" s="9">
         <v>1283</v>
       </c>
-      <c r="C52" s="13">
+      <c r="D52" s="9">
         <v>81</v>
       </c>
-      <c r="D52" s="13">
+      <c r="E52" s="9">
         <v>205</v>
       </c>
-      <c r="E52" s="13">
+      <c r="F52" s="9">
         <v>638</v>
       </c>
-      <c r="F52" s="13">
+      <c r="G52" s="9">
         <v>358</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+    <row r="53" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>2006</v>
       </c>
-      <c r="B53" s="13">
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>1051000</v>
+      </c>
+      <c r="C53" s="9">
         <v>1051</v>
       </c>
-      <c r="C53" s="13">
+      <c r="D53" s="9">
         <v>63</v>
       </c>
-      <c r="D53" s="13">
+      <c r="E53" s="9">
         <v>161</v>
       </c>
-      <c r="E53" s="13">
+      <c r="F53" s="9">
         <v>559</v>
       </c>
-      <c r="F53" s="13">
+      <c r="G53" s="9">
         <v>267</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+    <row r="54" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>2007</v>
       </c>
-      <c r="B54" s="13">
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>776000</v>
+      </c>
+      <c r="C54" s="9">
         <v>776</v>
       </c>
-      <c r="C54" s="13">
+      <c r="D54" s="9">
         <v>65</v>
       </c>
-      <c r="D54" s="13">
+      <c r="E54" s="9">
         <v>118</v>
       </c>
-      <c r="E54" s="13">
+      <c r="F54" s="9">
         <v>411</v>
       </c>
-      <c r="F54" s="13">
+      <c r="G54" s="9">
         <v>181</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+    <row r="55" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>2008</v>
       </c>
-      <c r="B55" s="13">
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>485000</v>
+      </c>
+      <c r="C55" s="9">
         <v>485</v>
       </c>
-      <c r="C55" s="13">
+      <c r="D55" s="9">
         <v>35</v>
       </c>
-      <c r="D55" s="13">
+      <c r="E55" s="9">
         <v>70</v>
       </c>
-      <c r="E55" s="13">
+      <c r="F55" s="9">
         <v>266</v>
       </c>
-      <c r="F55" s="13">
+      <c r="G55" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+    <row r="56" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>2009</v>
       </c>
-      <c r="B56" s="13">
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>375000</v>
+      </c>
+      <c r="C56" s="9">
         <v>375</v>
       </c>
-      <c r="C56" s="13">
+      <c r="D56" s="9">
         <v>31</v>
       </c>
-      <c r="D56" s="13">
+      <c r="E56" s="9">
         <v>54</v>
       </c>
-      <c r="E56" s="13">
+      <c r="F56" s="9">
         <v>202</v>
       </c>
-      <c r="F56" s="13">
+      <c r="G56" s="9">
         <v>87</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+    <row r="57" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>2010</v>
       </c>
-      <c r="B57" s="13">
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>323000</v>
+      </c>
+      <c r="C57" s="9">
         <v>323</v>
       </c>
-      <c r="C57" s="13">
+      <c r="D57" s="9">
         <v>31</v>
       </c>
-      <c r="D57" s="13">
+      <c r="E57" s="9">
         <v>45</v>
       </c>
-      <c r="E57" s="13">
+      <c r="F57" s="9">
         <v>173</v>
       </c>
-      <c r="F57" s="13">
+      <c r="G57" s="9">
         <v>74</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+    <row r="58" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>2011</v>
       </c>
-      <c r="B58" s="13">
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>306000</v>
+      </c>
+      <c r="C58" s="9">
         <v>306</v>
       </c>
-      <c r="C58" s="13">
+      <c r="D58" s="9">
         <v>21</v>
       </c>
-      <c r="D58" s="13">
+      <c r="E58" s="9">
         <v>45</v>
       </c>
-      <c r="E58" s="13">
+      <c r="F58" s="9">
         <v>168</v>
       </c>
-      <c r="F58" s="13">
+      <c r="G58" s="9">
         <v>72</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+    <row r="59" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>2012</v>
       </c>
-      <c r="B59" s="13">
+      <c r="B59">
+        <f t="shared" si="0"/>
+        <v>368000</v>
+      </c>
+      <c r="C59" s="9">
         <v>368</v>
       </c>
-      <c r="C59" s="13">
+      <c r="D59" s="9">
         <v>29</v>
       </c>
-      <c r="D59" s="13">
+      <c r="E59" s="9">
         <v>47</v>
       </c>
-      <c r="E59" s="13">
+      <c r="F59" s="9">
         <v>195</v>
       </c>
-      <c r="F59" s="13">
+      <c r="G59" s="9">
         <v>97</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
+    <row r="60" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>2013</v>
       </c>
-      <c r="B60" s="13">
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>429000</v>
+      </c>
+      <c r="C60" s="9">
         <v>429</v>
       </c>
-      <c r="C60" s="13">
+      <c r="D60" s="9">
         <v>31</v>
       </c>
-      <c r="D60" s="13">
+      <c r="E60" s="9">
         <v>61</v>
       </c>
-      <c r="E60" s="13">
+      <c r="F60" s="9">
         <v>233</v>
       </c>
-      <c r="F60" s="13">
+      <c r="G60" s="9">
         <v>105</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+    <row r="61" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>2014</v>
       </c>
-      <c r="B61" s="13">
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>437000</v>
+      </c>
+      <c r="C61" s="9">
         <v>437</v>
       </c>
-      <c r="C61" s="13">
+      <c r="D61" s="9">
         <v>28</v>
       </c>
-      <c r="D61" s="13">
+      <c r="E61" s="9">
         <v>59</v>
       </c>
-      <c r="E61" s="13">
+      <c r="F61" s="9">
         <v>243</v>
       </c>
-      <c r="F61" s="13">
+      <c r="G61" s="9">
         <v>108</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+    <row r="62" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>2015</v>
       </c>
-      <c r="B62" s="13">
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>501000</v>
+      </c>
+      <c r="C62" s="9">
         <v>501</v>
       </c>
-      <c r="C62" s="13">
+      <c r="D62" s="9">
         <v>24</v>
       </c>
-      <c r="D62" s="13">
+      <c r="E62" s="9">
         <v>61</v>
       </c>
-      <c r="E62" s="13">
+      <c r="F62" s="9">
         <v>286</v>
       </c>
-      <c r="F62" s="13">
+      <c r="G62" s="9">
         <v>130</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+    <row r="63" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>2016</v>
       </c>
-      <c r="B63" s="13">
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>561000</v>
+      </c>
+      <c r="C63" s="9">
         <v>561</v>
       </c>
-      <c r="C63" s="13">
+      <c r="D63" s="9">
         <v>32</v>
       </c>
-      <c r="D63" s="13">
+      <c r="E63" s="9">
         <v>69</v>
       </c>
-      <c r="E63" s="13">
+      <c r="F63" s="9">
         <v>318</v>
       </c>
-      <c r="F63" s="13">
+      <c r="G63" s="9">
         <v>142</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+    <row r="64" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
         <v>2017</v>
       </c>
-      <c r="B64" s="13">
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>613000</v>
+      </c>
+      <c r="C64" s="9">
         <v>613</v>
       </c>
-      <c r="C64" s="13">
+      <c r="D64" s="9">
         <v>40</v>
       </c>
-      <c r="D64" s="13">
+      <c r="E64" s="9">
         <v>72</v>
       </c>
-      <c r="E64" s="13">
+      <c r="F64" s="9">
         <v>339</v>
       </c>
-      <c r="F64" s="13">
+      <c r="G64" s="9">
         <v>163</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12">
+    <row r="65" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="8">
         <v>2018</v>
       </c>
-      <c r="B65" s="13">
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>617000</v>
+      </c>
+      <c r="C65" s="9">
         <v>617</v>
       </c>
-      <c r="C65" s="13">
+      <c r="D65" s="9">
         <v>32</v>
       </c>
-      <c r="D65" s="13">
+      <c r="E65" s="9">
         <v>76</v>
       </c>
-      <c r="E65" s="13">
+      <c r="F65" s="9">
         <v>348</v>
       </c>
-      <c r="F65" s="13">
+      <c r="G65" s="9">
         <v>160</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12">
+    <row r="66" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="8">
         <v>2019</v>
       </c>
-      <c r="B66" s="13">
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>683000</v>
+      </c>
+      <c r="C66" s="9">
         <v>683</v>
       </c>
-      <c r="C66" s="13">
+      <c r="D66" s="9">
         <v>30</v>
       </c>
-      <c r="D66" s="13">
+      <c r="E66" s="9">
         <v>72</v>
       </c>
-      <c r="E66" s="13">
+      <c r="F66" s="9">
         <v>399</v>
       </c>
-      <c r="F66" s="13">
+      <c r="G66" s="9">
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="12">
+    <row r="67" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="8">
         <v>2020</v>
       </c>
-      <c r="B67" s="13">
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>822000</v>
+      </c>
+      <c r="C67" s="9">
         <v>822</v>
       </c>
-      <c r="C67" s="13">
+      <c r="D67" s="9">
         <v>37</v>
       </c>
-      <c r="D67" s="13">
+      <c r="E67" s="9">
         <v>93</v>
       </c>
-      <c r="E67" s="13">
+      <c r="F67" s="9">
         <v>474</v>
       </c>
-      <c r="F67" s="13">
+      <c r="G67" s="9">
         <v>218</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="12">
+    <row r="68" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="8">
         <v>2021</v>
       </c>
-      <c r="B68" s="13">
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>771000</v>
+      </c>
+      <c r="C68" s="9">
         <v>771</v>
       </c>
-      <c r="C68" s="13">
+      <c r="D68" s="9">
         <v>36</v>
       </c>
-      <c r="D68" s="13">
+      <c r="E68" s="9">
         <v>86</v>
       </c>
-      <c r="E68" s="13">
+      <c r="F68" s="9">
         <v>453</v>
       </c>
-      <c r="F68" s="13">
+      <c r="G68" s="9">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
-      <c r="B69" s="13"/>
-      <c r="C69" s="13"/>
-      <c r="D69" s="13"/>
-      <c r="E69" s="13"/>
-      <c r="F69" s="13"/>
-    </row>
-    <row r="70" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
-      <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="12"/>
-    </row>
-    <row r="71" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="14" t="s">
+    <row r="69" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9"/>
+      <c r="E69" s="9"/>
+      <c r="F69" s="9"/>
+    </row>
+    <row r="70" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="8"/>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8"/>
+      <c r="D70" s="8"/>
+      <c r="E70" s="8"/>
+      <c r="F70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="12"/>
-    </row>
-    <row r="72" spans="1:6" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="14" t="s">
+      <c r="B71" s="8"/>
+      <c r="C71" s="8"/>
+      <c r="D71" s="8"/>
+      <c r="E71" s="8"/>
+      <c r="F71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="12"/>
+      <c r="B72" s="8"/>
+      <c r="C72" s="8"/>
+      <c r="D72" s="8"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5183,696 +5233,696 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
     </row>
     <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="8">
         <v>1963</v>
       </c>
-      <c r="B6" s="19">
+      <c r="B6" s="13">
         <v>18000</v>
       </c>
-      <c r="C6" s="19">
+      <c r="C6" s="13">
         <v>19300</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="A7" s="8">
         <v>1964</v>
       </c>
-      <c r="B7" s="19">
+      <c r="B7" s="13">
         <v>18900</v>
       </c>
-      <c r="C7" s="19">
+      <c r="C7" s="13">
         <v>20500</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="A8" s="8">
         <v>1965</v>
       </c>
-      <c r="B8" s="19">
+      <c r="B8" s="13">
         <v>20000</v>
       </c>
-      <c r="C8" s="19">
+      <c r="C8" s="13">
         <v>21500</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
+      <c r="A9" s="8">
         <v>1966</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B9" s="13">
         <v>21400</v>
       </c>
-      <c r="C9" s="19">
+      <c r="C9" s="13">
         <v>23300</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="A10" s="8">
         <v>1967</v>
       </c>
-      <c r="B10" s="19">
+      <c r="B10" s="13">
         <v>22700</v>
       </c>
-      <c r="C10" s="19">
+      <c r="C10" s="13">
         <v>24600</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="A11" s="8">
         <v>1968</v>
       </c>
-      <c r="B11" s="19">
+      <c r="B11" s="13">
         <v>24700</v>
       </c>
-      <c r="C11" s="19">
+      <c r="C11" s="13">
         <v>26600</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="8">
         <v>1969</v>
       </c>
-      <c r="B12" s="19">
+      <c r="B12" s="13">
         <v>25600</v>
       </c>
-      <c r="C12" s="19">
+      <c r="C12" s="13">
         <v>27900</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="A13" s="8">
         <v>1970</v>
       </c>
-      <c r="B13" s="19">
+      <c r="B13" s="13">
         <v>23400</v>
       </c>
-      <c r="C13" s="19">
+      <c r="C13" s="13">
         <v>26600</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="A14" s="8">
         <v>1971</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="13">
         <v>25200</v>
       </c>
-      <c r="C14" s="19">
+      <c r="C14" s="13">
         <v>28300</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="A15" s="8">
         <v>1972</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="13">
         <v>27600</v>
       </c>
-      <c r="C15" s="19">
+      <c r="C15" s="13">
         <v>30500</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="A16" s="8">
         <v>1973</v>
       </c>
-      <c r="B16" s="19">
+      <c r="B16" s="13">
         <v>32500</v>
       </c>
-      <c r="C16" s="19">
+      <c r="C16" s="13">
         <v>35500</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="A17" s="8">
         <v>1974</v>
       </c>
-      <c r="B17" s="19">
+      <c r="B17" s="13">
         <v>35900</v>
       </c>
-      <c r="C17" s="19">
+      <c r="C17" s="13">
         <v>38900</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="A18" s="8">
         <v>1975</v>
       </c>
-      <c r="B18" s="19">
+      <c r="B18" s="13">
         <v>39300</v>
       </c>
-      <c r="C18" s="19">
+      <c r="C18" s="13">
         <v>42600</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="A19" s="8">
         <v>1976</v>
       </c>
-      <c r="B19" s="19">
+      <c r="B19" s="13">
         <v>44200</v>
       </c>
-      <c r="C19" s="19">
+      <c r="C19" s="13">
         <v>48000</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="A20" s="8">
         <v>1977</v>
       </c>
-      <c r="B20" s="19">
+      <c r="B20" s="13">
         <v>48800</v>
       </c>
-      <c r="C20" s="19">
+      <c r="C20" s="13">
         <v>54200</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="A21" s="8">
         <v>1978</v>
       </c>
-      <c r="B21" s="19">
+      <c r="B21" s="13">
         <v>55700</v>
       </c>
-      <c r="C21" s="19">
+      <c r="C21" s="13">
         <v>62500</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="A22" s="8">
         <v>1979</v>
       </c>
-      <c r="B22" s="19">
+      <c r="B22" s="13">
         <v>62900</v>
       </c>
-      <c r="C22" s="19">
+      <c r="C22" s="13">
         <v>71800</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="A23" s="8">
         <v>1980</v>
       </c>
-      <c r="B23" s="19">
+      <c r="B23" s="13">
         <v>64600</v>
       </c>
-      <c r="C23" s="19">
+      <c r="C23" s="13">
         <v>76400</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="A24" s="8">
         <v>1981</v>
       </c>
-      <c r="B24" s="19">
+      <c r="B24" s="13">
         <v>68900</v>
       </c>
-      <c r="C24" s="19">
+      <c r="C24" s="13">
         <v>83000</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="A25" s="8">
         <v>1982</v>
       </c>
-      <c r="B25" s="19">
+      <c r="B25" s="13">
         <v>69300</v>
       </c>
-      <c r="C25" s="19">
+      <c r="C25" s="13">
         <v>83900</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="A26" s="8">
         <v>1983</v>
       </c>
-      <c r="B26" s="19">
+      <c r="B26" s="13">
         <v>75300</v>
       </c>
-      <c r="C26" s="19">
+      <c r="C26" s="13">
         <v>89800</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="A27" s="8">
         <v>1984</v>
       </c>
-      <c r="B27" s="19">
+      <c r="B27" s="13">
         <v>79900</v>
       </c>
-      <c r="C27" s="19">
+      <c r="C27" s="13">
         <v>97600</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="A28" s="8">
         <v>1985</v>
       </c>
-      <c r="B28" s="19">
+      <c r="B28" s="13">
         <v>84300</v>
       </c>
-      <c r="C28" s="19">
+      <c r="C28" s="13">
         <v>100800</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="A29" s="8">
         <v>1986</v>
       </c>
-      <c r="B29" s="19">
+      <c r="B29" s="13">
         <v>92000</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="13">
         <v>111900</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="A30" s="8">
         <v>1987</v>
       </c>
-      <c r="B30" s="19">
+      <c r="B30" s="13">
         <v>104500</v>
       </c>
-      <c r="C30" s="19">
+      <c r="C30" s="13">
         <v>127200</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="A31" s="8">
         <v>1988</v>
       </c>
-      <c r="B31" s="19">
+      <c r="B31" s="13">
         <v>112500</v>
       </c>
-      <c r="C31" s="19">
+      <c r="C31" s="13">
         <v>138300</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="A32" s="8">
         <v>1989</v>
       </c>
-      <c r="B32" s="19">
+      <c r="B32" s="13">
         <v>120000</v>
       </c>
-      <c r="C32" s="19">
+      <c r="C32" s="13">
         <v>148800</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="A33" s="8">
         <v>1990</v>
       </c>
-      <c r="B33" s="19">
+      <c r="B33" s="13">
         <v>122900</v>
       </c>
-      <c r="C33" s="19">
+      <c r="C33" s="13">
         <v>149800</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="A34" s="8">
         <v>1991</v>
       </c>
-      <c r="B34" s="19">
+      <c r="B34" s="13">
         <v>120000</v>
       </c>
-      <c r="C34" s="19">
+      <c r="C34" s="13">
         <v>147200</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="A35" s="8">
         <v>1992</v>
       </c>
-      <c r="B35" s="19">
+      <c r="B35" s="13">
         <v>121500</v>
       </c>
-      <c r="C35" s="19">
+      <c r="C35" s="13">
         <v>144100</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="A36" s="8">
         <v>1993</v>
       </c>
-      <c r="B36" s="19">
+      <c r="B36" s="13">
         <v>126500</v>
       </c>
-      <c r="C36" s="19">
+      <c r="C36" s="13">
         <v>147700</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="A37" s="8">
         <v>1994</v>
       </c>
-      <c r="B37" s="19">
+      <c r="B37" s="13">
         <v>130000</v>
       </c>
-      <c r="C37" s="19">
+      <c r="C37" s="13">
         <v>154500</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="A38" s="8">
         <v>1995</v>
       </c>
-      <c r="B38" s="19">
+      <c r="B38" s="13">
         <v>133900</v>
       </c>
-      <c r="C38" s="19">
+      <c r="C38" s="13">
         <v>158700</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="A39" s="8">
         <v>1996</v>
       </c>
-      <c r="B39" s="19">
+      <c r="B39" s="13">
         <v>140000</v>
       </c>
-      <c r="C39" s="19">
+      <c r="C39" s="13">
         <v>166400</v>
       </c>
     </row>
     <row r="40" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="A40" s="8">
         <v>1997</v>
       </c>
-      <c r="B40" s="19">
+      <c r="B40" s="13">
         <v>146000</v>
       </c>
-      <c r="C40" s="19">
+      <c r="C40" s="13">
         <v>176200</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="A41" s="8">
         <v>1998</v>
       </c>
-      <c r="B41" s="19">
+      <c r="B41" s="13">
         <v>152500</v>
       </c>
-      <c r="C41" s="19">
+      <c r="C41" s="13">
         <v>181900</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="A42" s="8">
         <v>1999</v>
       </c>
-      <c r="B42" s="19">
+      <c r="B42" s="13">
         <v>161000</v>
       </c>
-      <c r="C42" s="19">
+      <c r="C42" s="13">
         <v>195600</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="A43" s="8">
         <v>2000</v>
       </c>
-      <c r="B43" s="19">
+      <c r="B43" s="13">
         <v>169000</v>
       </c>
-      <c r="C43" s="19">
+      <c r="C43" s="13">
         <v>207000</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="A44" s="8">
         <v>2001</v>
       </c>
-      <c r="B44" s="19">
+      <c r="B44" s="13">
         <v>175200</v>
       </c>
-      <c r="C44" s="19">
+      <c r="C44" s="13">
         <v>213200</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="A45" s="8">
         <v>2002</v>
       </c>
-      <c r="B45" s="19">
+      <c r="B45" s="13">
         <v>187600</v>
       </c>
-      <c r="C45" s="19">
+      <c r="C45" s="13">
         <v>228700</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="A46" s="8">
         <v>2003</v>
       </c>
-      <c r="B46" s="19">
+      <c r="B46" s="13">
         <v>195000</v>
       </c>
-      <c r="C46" s="19">
+      <c r="C46" s="13">
         <v>246300</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="A47" s="8">
         <v>2004</v>
       </c>
-      <c r="B47" s="19">
+      <c r="B47" s="13">
         <v>221000</v>
       </c>
-      <c r="C47" s="19">
+      <c r="C47" s="13">
         <v>274500</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="A48" s="8">
         <v>2005</v>
       </c>
-      <c r="B48" s="19">
+      <c r="B48" s="13">
         <v>240900</v>
       </c>
-      <c r="C48" s="19">
+      <c r="C48" s="13">
         <v>297000</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="A49" s="8">
         <v>2006</v>
       </c>
-      <c r="B49" s="19">
+      <c r="B49" s="13">
         <v>246500</v>
       </c>
-      <c r="C49" s="19">
+      <c r="C49" s="13">
         <v>305900</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="A50" s="8">
         <v>2007</v>
       </c>
-      <c r="B50" s="19">
+      <c r="B50" s="13">
         <v>247900</v>
       </c>
-      <c r="C50" s="19">
+      <c r="C50" s="13">
         <v>313600</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="A51" s="8">
         <v>2008</v>
       </c>
-      <c r="B51" s="19">
+      <c r="B51" s="13">
         <v>232100</v>
       </c>
-      <c r="C51" s="19">
+      <c r="C51" s="13">
         <v>292600</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="A52" s="8">
         <v>2009</v>
       </c>
-      <c r="B52" s="19">
+      <c r="B52" s="13">
         <v>216700</v>
       </c>
-      <c r="C52" s="19">
+      <c r="C52" s="13">
         <v>270900</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+      <c r="A53" s="8">
         <v>2010</v>
       </c>
-      <c r="B53" s="19">
+      <c r="B53" s="13">
         <v>221800</v>
       </c>
-      <c r="C53" s="19">
+      <c r="C53" s="13">
         <v>272900</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+      <c r="A54" s="8">
         <v>2011</v>
       </c>
-      <c r="B54" s="19">
+      <c r="B54" s="13">
         <v>227200</v>
       </c>
-      <c r="C54" s="19">
+      <c r="C54" s="13">
         <v>267900</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="A55" s="8">
         <v>2012</v>
       </c>
-      <c r="B55" s="19">
+      <c r="B55" s="13">
         <v>245200</v>
       </c>
-      <c r="C55" s="19">
+      <c r="C55" s="13">
         <v>292200</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+      <c r="A56" s="8">
         <v>2013</v>
       </c>
-      <c r="B56" s="19">
+      <c r="B56" s="13">
         <v>268900</v>
       </c>
-      <c r="C56" s="19">
+      <c r="C56" s="13">
         <v>324500</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="A57" s="8">
         <v>2014</v>
       </c>
-      <c r="B57" s="19">
+      <c r="B57" s="13">
         <v>288500</v>
       </c>
-      <c r="C57" s="19">
+      <c r="C57" s="13">
         <v>347700</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+      <c r="A58" s="8">
         <v>2015</v>
       </c>
-      <c r="B58" s="19">
+      <c r="B58" s="13">
         <v>294200</v>
       </c>
-      <c r="C58" s="19">
+      <c r="C58" s="13">
         <v>352700</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="A59" s="8">
         <v>2016</v>
       </c>
-      <c r="B59" s="19">
+      <c r="B59" s="13">
         <v>307800</v>
       </c>
-      <c r="C59" s="19">
+      <c r="C59" s="13">
         <v>360900</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
+      <c r="A60" s="8">
         <v>2017</v>
       </c>
-      <c r="B60" s="19">
+      <c r="B60" s="13">
         <v>323100</v>
       </c>
-      <c r="C60" s="19">
+      <c r="C60" s="13">
         <v>384900</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+      <c r="A61" s="8">
         <v>2018</v>
       </c>
-      <c r="B61" s="19">
+      <c r="B61" s="13">
         <v>326400</v>
       </c>
-      <c r="C61" s="19">
+      <c r="C61" s="13">
         <v>385000</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+      <c r="A62" s="8">
         <v>2019</v>
       </c>
-      <c r="B62" s="19">
+      <c r="B62" s="13">
         <v>321500</v>
       </c>
-      <c r="C62" s="19">
+      <c r="C62" s="13">
         <v>383900</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+      <c r="A63" s="8">
         <v>2020</v>
       </c>
-      <c r="B63" s="19">
+      <c r="B63" s="13">
         <v>336900</v>
       </c>
-      <c r="C63" s="19">
+      <c r="C63" s="13">
         <v>391900</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+      <c r="A64" s="8">
         <v>2021</v>
       </c>
-      <c r="B64" s="19">
+      <c r="B64" s="13">
         <v>397100</v>
       </c>
-      <c r="C64" s="19">
+      <c r="C64" s="13">
         <v>464200</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
-      <c r="B65" s="20"/>
-      <c r="C65" s="20"/>
+      <c r="A65" s="8"/>
+      <c r="B65" s="14"/>
+      <c r="C65" s="14"/>
     </row>
     <row r="66" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
-      <c r="B66" s="20"/>
-      <c r="C66" s="20"/>
+      <c r="A66" s="8"/>
+      <c r="B66" s="14"/>
+      <c r="C66" s="14"/>
     </row>
     <row r="67" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="21" t="s">
+      <c r="A67" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="20"/>
-      <c r="C67" s="20"/>
+      <c r="B67" s="14"/>
+      <c r="C67" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -5886,737 +5936,538 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7966E2-C3F6-724E-A5A0-D24726136052}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="23" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-    </row>
-    <row r="5" spans="1:9" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="24" t="s">
+      <c r="B5" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="D5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="25" t="s">
+      <c r="E5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="25" t="s">
+      <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="24" t="s">
+      <c r="G5" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="24" t="s">
+      <c r="H5" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
         <v>1963</v>
       </c>
-      <c r="B6" s="22" cm="1">
-        <f t="array" ref="B6:B64">'# Sold'!B10:B68 * 'Average Price'!B6:B64/1000000</f>
-        <v>10.08</v>
-      </c>
-      <c r="C6" s="22" cm="1">
-        <f t="array" ref="C6:C64">'# Sold'!B10:B68 *'Average Price'!C6:C64/1000000</f>
-        <v>10.808</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="12">
+      <c r="B6" s="25" cm="1">
+        <f t="array" ref="B6:B64">'# Sold'!B10:B68 *'Average Price'!C6:C64</f>
+        <v>10808000000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
         <v>1964</v>
       </c>
-      <c r="B7" s="22">
-        <v>10.6785</v>
-      </c>
-      <c r="C7" s="22">
-        <v>11.5825</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="12">
+      <c r="B7" s="25">
+        <v>11582500000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8">
         <v>1965</v>
       </c>
-      <c r="B8" s="22">
-        <v>11.5</v>
-      </c>
-      <c r="C8" s="22">
-        <v>12.362500000000001</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1965</v>
-      </c>
-      <c r="G8">
+      <c r="B8" s="25">
+        <v>12362500000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8">
         <v>1966</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="12">
-        <v>1966</v>
-      </c>
-      <c r="B9" s="22">
-        <v>9.8653999999999993</v>
-      </c>
-      <c r="C9" s="22">
-        <v>10.741300000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="12">
+      <c r="B9" s="25">
+        <v>10741300000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
         <v>1967</v>
       </c>
-      <c r="B10" s="22">
-        <v>11.0549</v>
-      </c>
-      <c r="C10" s="22">
-        <v>11.9802</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="12">
+      <c r="B10" s="25">
+        <v>11980200000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8">
         <v>1968</v>
       </c>
-      <c r="B11" s="22">
-        <v>12.103</v>
-      </c>
-      <c r="C11" s="22">
-        <v>13.034000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="B11" s="25">
+        <v>13034000000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
         <v>1969</v>
       </c>
-      <c r="B12" s="22">
-        <v>11.4688</v>
-      </c>
-      <c r="C12" s="22">
-        <v>12.4992</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="12">
+      <c r="B12" s="25">
+        <v>12499200000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
         <v>1970</v>
       </c>
-      <c r="B13" s="22">
-        <v>11.349</v>
-      </c>
-      <c r="C13" s="22">
-        <v>12.901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="12">
+      <c r="B13" s="25">
+        <v>12901000000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
         <v>1971</v>
       </c>
-      <c r="B14" s="22">
-        <v>16.531199999999998</v>
-      </c>
-      <c r="C14" s="22">
-        <v>18.564800000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="12">
+      <c r="B14" s="25">
+        <v>18564800000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8">
         <v>1972</v>
       </c>
-      <c r="B15" s="22">
-        <v>19.816800000000001</v>
-      </c>
-      <c r="C15" s="22">
-        <v>21.899000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A16" s="12">
+      <c r="B15" s="25">
+        <v>21899000000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8">
         <v>1973</v>
       </c>
-      <c r="B16" s="22">
-        <v>20.605</v>
-      </c>
-      <c r="C16" s="22">
-        <v>22.507000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="12">
+      <c r="B16" s="25">
+        <v>22507000000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="8">
         <v>1974</v>
       </c>
-      <c r="B17" s="22">
-        <v>18.632100000000001</v>
-      </c>
-      <c r="C17" s="22">
-        <v>20.1891</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="12">
+      <c r="B17" s="25">
+        <v>20189100000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" s="8">
         <v>1975</v>
       </c>
-      <c r="B18" s="22">
-        <v>21.575700000000001</v>
-      </c>
-      <c r="C18" s="22">
-        <v>23.3874</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="12">
+      <c r="B18" s="25">
+        <v>23387400000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="8">
         <v>1976</v>
       </c>
-      <c r="B19" s="22">
-        <v>28.5532</v>
-      </c>
-      <c r="C19" s="22">
-        <v>31.007999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="12">
+      <c r="B19" s="25">
+        <v>31008000000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="8">
         <v>1977</v>
       </c>
-      <c r="B20" s="22">
-        <v>39.967199999999998</v>
-      </c>
-      <c r="C20" s="22">
-        <v>44.389800000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="12">
+      <c r="B20" s="25">
+        <v>44389800000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="8">
         <v>1978</v>
       </c>
-      <c r="B21" s="22">
-        <v>45.506900000000002</v>
-      </c>
-      <c r="C21" s="22">
-        <v>51.0625</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="12">
+      <c r="B21" s="25">
+        <v>51062500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="8">
         <v>1979</v>
       </c>
-      <c r="B22" s="22">
-        <v>44.5961</v>
-      </c>
-      <c r="C22" s="22">
-        <v>50.906199999999998</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="12">
+      <c r="B22" s="25">
+        <v>50906200000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>1980</v>
       </c>
-      <c r="B23" s="22">
-        <v>35.207000000000001</v>
-      </c>
-      <c r="C23" s="22">
-        <v>41.637999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="12">
+      <c r="B23" s="25">
+        <v>41638000000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="8">
         <v>1981</v>
       </c>
-      <c r="B24" s="22">
-        <v>30.040400000000002</v>
-      </c>
-      <c r="C24" s="22">
-        <v>36.188000000000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="12">
+      <c r="B24" s="25">
+        <v>36188000000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="8">
         <v>1982</v>
       </c>
-      <c r="B25" s="22">
-        <v>28.551600000000001</v>
-      </c>
-      <c r="C25" s="22">
-        <v>34.566800000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="12">
+      <c r="B25" s="25">
+        <v>34566800000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="8">
         <v>1983</v>
       </c>
-      <c r="B26" s="22">
-        <v>46.911900000000003</v>
-      </c>
-      <c r="C26" s="22">
-        <v>55.945399999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="12">
+      <c r="B26" s="25">
+        <v>55945400000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="8">
         <v>1984</v>
       </c>
-      <c r="B27" s="22">
-        <v>51.056100000000001</v>
-      </c>
-      <c r="C27" s="22">
-        <v>62.366399999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="12">
+      <c r="B27" s="25">
+        <v>62366400000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="8">
         <v>1985</v>
       </c>
-      <c r="B28" s="22">
-        <v>57.998399999999997</v>
-      </c>
-      <c r="C28" s="22">
-        <v>69.350399999999993</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="12">
+      <c r="B28" s="25">
+        <v>69350400000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="8">
         <v>1986</v>
       </c>
-      <c r="B29" s="22">
-        <v>69</v>
-      </c>
-      <c r="C29" s="22">
-        <v>83.924999999999997</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="12">
+      <c r="B29" s="25">
+        <v>83925000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="8">
         <v>1987</v>
       </c>
-      <c r="B30" s="22">
-        <v>70.119500000000002</v>
-      </c>
-      <c r="C30" s="22">
-        <v>85.351200000000006</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="12">
+      <c r="B30" s="25">
+        <v>85351200000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="8">
         <v>1988</v>
       </c>
-      <c r="B31" s="22">
-        <v>76.05</v>
-      </c>
-      <c r="C31" s="22">
-        <v>93.490799999999993</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="12">
+      <c r="B31" s="25">
+        <v>93490800000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="8">
         <v>1989</v>
       </c>
-      <c r="B32" s="22">
-        <v>78</v>
-      </c>
-      <c r="C32" s="22">
-        <v>96.72</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="12">
+      <c r="B32" s="25">
+        <v>96720000000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="8">
         <v>1990</v>
       </c>
-      <c r="B33" s="22">
-        <v>65.628600000000006</v>
-      </c>
-      <c r="C33" s="22">
-        <v>79.993200000000002</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="12">
+      <c r="B33" s="25">
+        <v>79993200000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="8">
         <v>1991</v>
       </c>
-      <c r="B34" s="22">
-        <v>61.08</v>
-      </c>
-      <c r="C34" s="22">
-        <v>74.924800000000005</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="12">
+      <c r="B34" s="25">
+        <v>74924800000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="8">
         <v>1992</v>
       </c>
-      <c r="B35" s="22">
-        <v>74.114999999999995</v>
-      </c>
-      <c r="C35" s="22">
-        <v>87.900999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" s="12">
+      <c r="B35" s="25">
+        <v>87901000000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="8">
         <v>1993</v>
       </c>
-      <c r="B36" s="22">
-        <v>84.248999999999995</v>
-      </c>
-      <c r="C36" s="22">
-        <v>98.368200000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="12">
+      <c r="B36" s="25">
+        <v>98368200000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="8">
         <v>1994</v>
       </c>
-      <c r="B37" s="22">
-        <v>87.1</v>
-      </c>
-      <c r="C37" s="22">
-        <v>103.515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="12">
+      <c r="B37" s="25">
+        <v>103515000000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="8">
         <v>1995</v>
       </c>
-      <c r="B38" s="22">
-        <v>89.311300000000003</v>
-      </c>
-      <c r="C38" s="22">
-        <v>105.85290000000001</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="12">
+      <c r="B38" s="25">
+        <v>105852900000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="8">
         <v>1996</v>
       </c>
-      <c r="B39" s="22">
-        <v>105.98</v>
-      </c>
-      <c r="C39" s="22">
-        <v>125.9648</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="12">
+      <c r="B39" s="25">
+        <v>125964800000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="8">
         <v>1997</v>
       </c>
-      <c r="B40" s="22">
-        <v>117.384</v>
-      </c>
-      <c r="C40" s="22">
-        <v>141.66480000000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="12">
+      <c r="B40" s="25">
+        <v>141664800000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="8">
         <v>1998</v>
       </c>
-      <c r="B41" s="22">
-        <v>135.11500000000001</v>
-      </c>
-      <c r="C41" s="22">
-        <v>161.1634</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="12">
+      <c r="B41" s="25">
+        <v>161163400000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
         <v>1999</v>
       </c>
-      <c r="B42" s="22">
-        <v>141.68</v>
-      </c>
-      <c r="C42" s="22">
-        <v>172.12799999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="12">
+      <c r="B42" s="25">
+        <v>172128000000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
         <v>2000</v>
       </c>
-      <c r="B43" s="22">
-        <v>148.21299999999999</v>
-      </c>
-      <c r="C43" s="22">
-        <v>181.53899999999999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" s="12">
+      <c r="B43" s="25">
+        <v>181539000000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
         <v>2001</v>
       </c>
-      <c r="B44" s="22">
-        <v>159.08160000000001</v>
-      </c>
-      <c r="C44" s="22">
-        <v>193.5856</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" s="12">
+      <c r="B44" s="25">
+        <v>193585600000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" s="8">
         <v>2002</v>
       </c>
-      <c r="B45" s="22">
-        <v>182.53479999999999</v>
-      </c>
-      <c r="C45" s="22">
-        <v>222.52510000000001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" s="12">
+      <c r="B45" s="25">
+        <v>222525100000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="8">
         <v>2003</v>
       </c>
-      <c r="B46" s="22">
-        <v>211.77</v>
-      </c>
-      <c r="C46" s="22">
-        <v>267.48180000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="12">
+      <c r="B46" s="25">
+        <v>267481800000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="8">
         <v>2004</v>
       </c>
-      <c r="B47" s="22">
-        <v>265.863</v>
-      </c>
-      <c r="C47" s="22">
-        <v>330.2235</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="12">
+      <c r="B47" s="25">
+        <v>330223500000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" s="8">
         <v>2005</v>
       </c>
-      <c r="B48" s="22">
-        <v>309.07470000000001</v>
-      </c>
-      <c r="C48" s="22">
-        <v>381.05099999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="12">
+      <c r="B48" s="25">
+        <v>381051000000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A49" s="8">
         <v>2006</v>
       </c>
-      <c r="B49" s="22">
-        <v>259.07150000000001</v>
-      </c>
-      <c r="C49" s="22">
-        <v>321.5009</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="12">
+      <c r="B49" s="25">
+        <v>321500900000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="8">
         <v>2007</v>
       </c>
-      <c r="B50" s="22">
-        <v>192.37039999999999</v>
-      </c>
-      <c r="C50" s="22">
-        <v>243.3536</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="12">
+      <c r="B50" s="25">
+        <v>243353600000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A51" s="8">
         <v>2008</v>
       </c>
-      <c r="B51" s="22">
-        <v>112.5685</v>
-      </c>
-      <c r="C51" s="22">
-        <v>141.911</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="12">
+      <c r="B51" s="25">
+        <v>141911000000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A52" s="8">
         <v>2009</v>
       </c>
-      <c r="B52" s="22">
-        <v>81.262500000000003</v>
-      </c>
-      <c r="C52" s="22">
-        <v>101.58750000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="12">
+      <c r="B52" s="25">
+        <v>101587500000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A53" s="8">
         <v>2010</v>
       </c>
-      <c r="B53" s="22">
-        <v>71.641400000000004</v>
-      </c>
-      <c r="C53" s="22">
-        <v>88.146699999999996</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="12">
+      <c r="B53" s="25">
+        <v>88146700000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A54" s="8">
         <v>2011</v>
       </c>
-      <c r="B54" s="22">
-        <v>69.523200000000003</v>
-      </c>
-      <c r="C54" s="22">
-        <v>81.977400000000003</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="12">
+      <c r="B54" s="25">
+        <v>81977400000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A55" s="8">
         <v>2012</v>
       </c>
-      <c r="B55" s="22">
-        <v>90.233599999999996</v>
-      </c>
-      <c r="C55" s="22">
-        <v>107.5296</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="12">
+      <c r="B55" s="25">
+        <v>107529600000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A56" s="8">
         <v>2013</v>
       </c>
-      <c r="B56" s="22">
-        <v>115.35809999999999</v>
-      </c>
-      <c r="C56" s="22">
-        <v>139.2105</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="12">
+      <c r="B56" s="25">
+        <v>139210500000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A57" s="8">
         <v>2014</v>
       </c>
-      <c r="B57" s="22">
-        <v>126.0745</v>
-      </c>
-      <c r="C57" s="22">
-        <v>151.94489999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="12">
+      <c r="B57" s="25">
+        <v>151944900000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A58" s="8">
         <v>2015</v>
       </c>
-      <c r="B58" s="22">
-        <v>147.39420000000001</v>
-      </c>
-      <c r="C58" s="22">
-        <v>176.70269999999999</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="12">
+      <c r="B58" s="25">
+        <v>176702700000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59" s="8">
         <v>2016</v>
       </c>
-      <c r="B59" s="22">
-        <v>172.67580000000001</v>
-      </c>
-      <c r="C59" s="22">
-        <v>202.4649</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="12">
+      <c r="B59" s="25">
+        <v>202464900000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60" s="8">
         <v>2017</v>
       </c>
-      <c r="B60" s="22">
-        <v>198.06030000000001</v>
-      </c>
-      <c r="C60" s="22">
-        <v>235.94370000000001</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="12">
+      <c r="B60" s="25">
+        <v>235943700000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A61" s="8">
         <v>2018</v>
       </c>
-      <c r="B61" s="22">
-        <v>201.3888</v>
-      </c>
-      <c r="C61" s="22">
-        <v>237.54499999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="12">
+      <c r="B61" s="25">
+        <v>237545000000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A62" s="8">
         <v>2019</v>
       </c>
-      <c r="B62" s="22">
-        <v>219.58449999999999</v>
-      </c>
-      <c r="C62" s="22">
-        <v>262.20370000000003</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="12">
+      <c r="B62" s="25">
+        <v>262203700000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A63" s="8">
         <v>2020</v>
       </c>
-      <c r="B63" s="22">
-        <v>276.93180000000001</v>
-      </c>
-      <c r="C63" s="22">
-        <v>322.14179999999999</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="12">
+      <c r="B63" s="25">
+        <v>322141800000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A64" s="8">
         <v>2021</v>
       </c>
-      <c r="B64" s="22">
-        <v>306.16410000000002</v>
-      </c>
-      <c r="C64" s="22">
-        <v>357.89819999999997</v>
+      <c r="B64" s="25">
+        <v>357898200000</v>
       </c>
     </row>
   </sheetData>
@@ -6632,7 +6483,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{559305EB-3C1A-684E-B80A-B5582192B003}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>

--- a/US_Housing_Macro_Analysis.xlsx
+++ b/US_Housing_Macro_Analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryanandrade/Desktop/GitHub/US_Housing_Macro/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE2A974F-75A5-0948-A5BB-E6B0FE1C04EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9068181C-43CF-504E-A651-C6CBDC6FDAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="760" windowWidth="34560" windowHeight="19680" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19680" activeTab="2" xr2:uid="{3A49B0E1-5FA0-8044-98A4-BAD0FA39CA68}"/>
   </bookViews>
   <sheets>
     <sheet name="# Sold" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="30">
   <si>
     <t>Houses Sold by Region</t>
   </si>
@@ -135,12 +135,6 @@
     <t>Valley</t>
   </si>
   <si>
-    <t>% Loss</t>
-  </si>
-  <si>
-    <t>% Gain</t>
-  </si>
-  <si>
     <t>Period of Expansion</t>
   </si>
   <si>
@@ -155,6 +149,9 @@
   <si>
     <t>Sales</t>
   </si>
+  <si>
+    <t>% Change</t>
+  </si>
 </sst>
 </file>
 
@@ -164,7 +161,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="mmm\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -388,6 +385,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -406,7 +404,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -3561,17 +3558,17 @@
       <c r="F3" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="21" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -3583,7 +3580,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="22"/>
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -3593,9 +3590,9 @@
       <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="22"/>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>6</v>
@@ -3614,9 +3611,9 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="13.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="22"/>
+      <c r="A9" s="23"/>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C9" s="7" t="s">
         <v>11</v>
@@ -5233,18 +5230,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
     </row>
     <row r="4" spans="1:3" ht="13.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="1:3" ht="24.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5936,10 +5933,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7966E2-C3F6-724E-A5A0-D24726136052}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5947,142 +5944,138 @@
     <col min="2" max="2" width="22.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="17.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
       <c r="D1" s="16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>22</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>29</v>
       </c>
       <c r="F5" s="18" t="s">
         <v>23</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>1963</v>
       </c>
-      <c r="B6" s="25" cm="1">
+      <c r="B6" s="19" cm="1">
         <f t="array" ref="B6:B64">'# Sold'!B10:B68 *'Average Price'!C6:C64</f>
         <v>10808000000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>1964</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="19">
         <v>11582500000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <v>1965</v>
       </c>
-      <c r="B8" s="25">
+      <c r="B8" s="19">
         <v>12362500000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <v>1966</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="19">
         <v>10741300000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>1967</v>
       </c>
-      <c r="B10" s="25">
+      <c r="B10" s="19">
         <v>11980200000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <v>1968</v>
       </c>
-      <c r="B11" s="25">
+      <c r="B11" s="19">
         <v>13034000000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <v>1969</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="19">
         <v>12499200000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>1970</v>
       </c>
-      <c r="B13" s="25">
+      <c r="B13" s="19">
         <v>12901000000</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>1971</v>
       </c>
-      <c r="B14" s="25">
+      <c r="B14" s="19">
         <v>18564800000</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="8">
         <v>1972</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="19">
         <v>21899000000</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>1973</v>
       </c>
-      <c r="B16" s="25">
+      <c r="B16" s="19">
         <v>22507000000</v>
       </c>
     </row>
@@ -6090,7 +6083,7 @@
       <c r="A17" s="8">
         <v>1974</v>
       </c>
-      <c r="B17" s="25">
+      <c r="B17" s="19">
         <v>20189100000</v>
       </c>
     </row>
@@ -6098,7 +6091,7 @@
       <c r="A18" s="8">
         <v>1975</v>
       </c>
-      <c r="B18" s="25">
+      <c r="B18" s="19">
         <v>23387400000</v>
       </c>
     </row>
@@ -6106,7 +6099,7 @@
       <c r="A19" s="8">
         <v>1976</v>
       </c>
-      <c r="B19" s="25">
+      <c r="B19" s="19">
         <v>31008000000</v>
       </c>
     </row>
@@ -6114,7 +6107,7 @@
       <c r="A20" s="8">
         <v>1977</v>
       </c>
-      <c r="B20" s="25">
+      <c r="B20" s="19">
         <v>44389800000</v>
       </c>
     </row>
@@ -6122,7 +6115,7 @@
       <c r="A21" s="8">
         <v>1978</v>
       </c>
-      <c r="B21" s="25">
+      <c r="B21" s="19">
         <v>51062500000</v>
       </c>
     </row>
@@ -6130,7 +6123,7 @@
       <c r="A22" s="8">
         <v>1979</v>
       </c>
-      <c r="B22" s="25">
+      <c r="B22" s="19">
         <v>50906200000</v>
       </c>
     </row>
@@ -6138,7 +6131,7 @@
       <c r="A23" s="8">
         <v>1980</v>
       </c>
-      <c r="B23" s="25">
+      <c r="B23" s="19">
         <v>41638000000</v>
       </c>
     </row>
@@ -6146,7 +6139,7 @@
       <c r="A24" s="8">
         <v>1981</v>
       </c>
-      <c r="B24" s="25">
+      <c r="B24" s="19">
         <v>36188000000</v>
       </c>
     </row>
@@ -6154,7 +6147,7 @@
       <c r="A25" s="8">
         <v>1982</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="19">
         <v>34566800000</v>
       </c>
     </row>
@@ -6162,7 +6155,7 @@
       <c r="A26" s="8">
         <v>1983</v>
       </c>
-      <c r="B26" s="25">
+      <c r="B26" s="19">
         <v>55945400000</v>
       </c>
     </row>
@@ -6170,7 +6163,7 @@
       <c r="A27" s="8">
         <v>1984</v>
       </c>
-      <c r="B27" s="25">
+      <c r="B27" s="19">
         <v>62366400000</v>
       </c>
     </row>
@@ -6178,7 +6171,7 @@
       <c r="A28" s="8">
         <v>1985</v>
       </c>
-      <c r="B28" s="25">
+      <c r="B28" s="19">
         <v>69350400000</v>
       </c>
     </row>
@@ -6186,7 +6179,7 @@
       <c r="A29" s="8">
         <v>1986</v>
       </c>
-      <c r="B29" s="25">
+      <c r="B29" s="19">
         <v>83925000000</v>
       </c>
     </row>
@@ -6194,7 +6187,7 @@
       <c r="A30" s="8">
         <v>1987</v>
       </c>
-      <c r="B30" s="25">
+      <c r="B30" s="19">
         <v>85351200000</v>
       </c>
     </row>
@@ -6202,7 +6195,7 @@
       <c r="A31" s="8">
         <v>1988</v>
       </c>
-      <c r="B31" s="25">
+      <c r="B31" s="19">
         <v>93490800000</v>
       </c>
     </row>
@@ -6210,7 +6203,7 @@
       <c r="A32" s="8">
         <v>1989</v>
       </c>
-      <c r="B32" s="25">
+      <c r="B32" s="19">
         <v>96720000000</v>
       </c>
     </row>
@@ -6218,7 +6211,7 @@
       <c r="A33" s="8">
         <v>1990</v>
       </c>
-      <c r="B33" s="25">
+      <c r="B33" s="19">
         <v>79993200000</v>
       </c>
     </row>
@@ -6226,7 +6219,7 @@
       <c r="A34" s="8">
         <v>1991</v>
       </c>
-      <c r="B34" s="25">
+      <c r="B34" s="19">
         <v>74924800000</v>
       </c>
     </row>
@@ -6234,7 +6227,7 @@
       <c r="A35" s="8">
         <v>1992</v>
       </c>
-      <c r="B35" s="25">
+      <c r="B35" s="19">
         <v>87901000000</v>
       </c>
     </row>
@@ -6242,7 +6235,7 @@
       <c r="A36" s="8">
         <v>1993</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B36" s="19">
         <v>98368200000</v>
       </c>
     </row>
@@ -6250,7 +6243,7 @@
       <c r="A37" s="8">
         <v>1994</v>
       </c>
-      <c r="B37" s="25">
+      <c r="B37" s="19">
         <v>103515000000</v>
       </c>
     </row>
@@ -6258,7 +6251,7 @@
       <c r="A38" s="8">
         <v>1995</v>
       </c>
-      <c r="B38" s="25">
+      <c r="B38" s="19">
         <v>105852900000</v>
       </c>
     </row>
@@ -6266,7 +6259,7 @@
       <c r="A39" s="8">
         <v>1996</v>
       </c>
-      <c r="B39" s="25">
+      <c r="B39" s="19">
         <v>125964800000</v>
       </c>
     </row>
@@ -6274,7 +6267,7 @@
       <c r="A40" s="8">
         <v>1997</v>
       </c>
-      <c r="B40" s="25">
+      <c r="B40" s="19">
         <v>141664800000</v>
       </c>
     </row>
@@ -6282,7 +6275,7 @@
       <c r="A41" s="8">
         <v>1998</v>
       </c>
-      <c r="B41" s="25">
+      <c r="B41" s="19">
         <v>161163400000</v>
       </c>
     </row>
@@ -6290,7 +6283,7 @@
       <c r="A42" s="8">
         <v>1999</v>
       </c>
-      <c r="B42" s="25">
+      <c r="B42" s="19">
         <v>172128000000</v>
       </c>
     </row>
@@ -6298,7 +6291,7 @@
       <c r="A43" s="8">
         <v>2000</v>
       </c>
-      <c r="B43" s="25">
+      <c r="B43" s="19">
         <v>181539000000</v>
       </c>
     </row>
@@ -6306,7 +6299,7 @@
       <c r="A44" s="8">
         <v>2001</v>
       </c>
-      <c r="B44" s="25">
+      <c r="B44" s="19">
         <v>193585600000</v>
       </c>
     </row>
@@ -6314,7 +6307,7 @@
       <c r="A45" s="8">
         <v>2002</v>
       </c>
-      <c r="B45" s="25">
+      <c r="B45" s="19">
         <v>222525100000</v>
       </c>
     </row>
@@ -6322,7 +6315,7 @@
       <c r="A46" s="8">
         <v>2003</v>
       </c>
-      <c r="B46" s="25">
+      <c r="B46" s="19">
         <v>267481800000</v>
       </c>
     </row>
@@ -6330,7 +6323,7 @@
       <c r="A47" s="8">
         <v>2004</v>
       </c>
-      <c r="B47" s="25">
+      <c r="B47" s="19">
         <v>330223500000</v>
       </c>
     </row>
@@ -6338,7 +6331,7 @@
       <c r="A48" s="8">
         <v>2005</v>
       </c>
-      <c r="B48" s="25">
+      <c r="B48" s="19">
         <v>381051000000</v>
       </c>
     </row>
@@ -6346,7 +6339,7 @@
       <c r="A49" s="8">
         <v>2006</v>
       </c>
-      <c r="B49" s="25">
+      <c r="B49" s="19">
         <v>321500900000</v>
       </c>
     </row>
@@ -6354,7 +6347,7 @@
       <c r="A50" s="8">
         <v>2007</v>
       </c>
-      <c r="B50" s="25">
+      <c r="B50" s="19">
         <v>243353600000</v>
       </c>
     </row>
@@ -6362,7 +6355,7 @@
       <c r="A51" s="8">
         <v>2008</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="19">
         <v>141911000000</v>
       </c>
     </row>
@@ -6370,7 +6363,7 @@
       <c r="A52" s="8">
         <v>2009</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="19">
         <v>101587500000</v>
       </c>
     </row>
@@ -6378,7 +6371,7 @@
       <c r="A53" s="8">
         <v>2010</v>
       </c>
-      <c r="B53" s="25">
+      <c r="B53" s="19">
         <v>88146700000</v>
       </c>
     </row>
@@ -6386,7 +6379,7 @@
       <c r="A54" s="8">
         <v>2011</v>
       </c>
-      <c r="B54" s="25">
+      <c r="B54" s="19">
         <v>81977400000</v>
       </c>
     </row>
@@ -6394,7 +6387,7 @@
       <c r="A55" s="8">
         <v>2012</v>
       </c>
-      <c r="B55" s="25">
+      <c r="B55" s="19">
         <v>107529600000</v>
       </c>
     </row>
@@ -6402,7 +6395,7 @@
       <c r="A56" s="8">
         <v>2013</v>
       </c>
-      <c r="B56" s="25">
+      <c r="B56" s="19">
         <v>139210500000</v>
       </c>
     </row>
@@ -6410,7 +6403,7 @@
       <c r="A57" s="8">
         <v>2014</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="19">
         <v>151944900000</v>
       </c>
     </row>
@@ -6418,7 +6411,7 @@
       <c r="A58" s="8">
         <v>2015</v>
       </c>
-      <c r="B58" s="25">
+      <c r="B58" s="19">
         <v>176702700000</v>
       </c>
     </row>
@@ -6426,7 +6419,7 @@
       <c r="A59" s="8">
         <v>2016</v>
       </c>
-      <c r="B59" s="25">
+      <c r="B59" s="19">
         <v>202464900000</v>
       </c>
     </row>
@@ -6434,7 +6427,7 @@
       <c r="A60" s="8">
         <v>2017</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="19">
         <v>235943700000</v>
       </c>
     </row>
@@ -6442,7 +6435,7 @@
       <c r="A61" s="8">
         <v>2018</v>
       </c>
-      <c r="B61" s="25">
+      <c r="B61" s="19">
         <v>237545000000</v>
       </c>
     </row>
@@ -6450,7 +6443,7 @@
       <c r="A62" s="8">
         <v>2019</v>
       </c>
-      <c r="B62" s="25">
+      <c r="B62" s="19">
         <v>262203700000</v>
       </c>
     </row>
@@ -6458,7 +6451,7 @@
       <c r="A63" s="8">
         <v>2020</v>
       </c>
-      <c r="B63" s="25">
+      <c r="B63" s="19">
         <v>322141800000</v>
       </c>
     </row>
@@ -6466,7 +6459,7 @@
       <c r="A64" s="8">
         <v>2021</v>
       </c>
-      <c r="B64" s="25">
+      <c r="B64" s="19">
         <v>357898200000</v>
       </c>
     </row>
